--- a/capiq_data/in_process_data/IQ319092.xlsx
+++ b/capiq_data/in_process_data/IQ319092.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2987741B-7338-42B0-A17E-AD19BC902931}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0596DC-ECD0-4B97-B795-E0360CA2D336}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"23211afe-ab50-400d-ac26-cc8eef3b0edd"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"c5f45932-5d46-4396-a25d-5267b1a0172c"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
   </si>
   <si>
     <t>FQ22011</t>
@@ -633,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,37 +847,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40537</v>
+        <v>36890</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>90.167000000000002</v>
+        <v>0.82</v>
       </c>
       <c r="D2">
-        <v>717.51499999999999</v>
+        <v>189.55</v>
       </c>
       <c r="E2">
-        <v>465.25700000000001</v>
+        <v>96.781000000000006</v>
       </c>
       <c r="F2">
-        <v>249.5</v>
+        <v>50.762999999999998</v>
       </c>
       <c r="G2">
-        <v>1163.54</v>
+        <v>305.41500000000002</v>
       </c>
       <c r="H2">
-        <v>2935.02</v>
+        <v>521.02</v>
       </c>
       <c r="I2">
-        <v>289.84399999999999</v>
+        <v>70.281999999999996</v>
       </c>
       <c r="J2">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.97099999999999997</v>
+        <v>8.7279999999999998</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -766,81 +886,81 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>588.18899999999996</v>
+        <v>138.30199999999999</v>
       </c>
       <c r="O2">
-        <v>1626.98</v>
+        <v>157.26900000000001</v>
       </c>
       <c r="P2">
-        <v>890.971</v>
+        <v>8.7279999999999998</v>
       </c>
       <c r="Q2">
-        <v>78.680999999999997</v>
+        <v>18.231000000000002</v>
       </c>
       <c r="R2">
-        <v>40537</v>
+        <v>36890</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>1308.04</v>
+        <v>363.75099999999998</v>
       </c>
       <c r="U2">
-        <v>134.779</v>
+        <v>51.645000000000003</v>
       </c>
       <c r="V2">
-        <v>128.90100000000001</v>
+        <v>22.571999999999999</v>
       </c>
       <c r="W2">
-        <v>-6.4880000000000004</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-22.367999999999999</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>90.167000000000002</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40628</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>10.101000000000001</v>
       </c>
       <c r="D3">
-        <v>691.56299999999999</v>
+        <v>190.898</v>
       </c>
       <c r="E3">
-        <v>464.19</v>
+        <v>87.411000000000001</v>
       </c>
       <c r="F3">
-        <v>239.13399999999999</v>
+        <v>46.426000000000002</v>
       </c>
       <c r="G3">
-        <v>1259.6469999999999</v>
+        <v>324.96499999999997</v>
       </c>
       <c r="H3">
-        <v>3037.491</v>
+        <v>541.524</v>
       </c>
       <c r="I3">
-        <v>286.79500000000002</v>
+        <v>72.55</v>
       </c>
       <c r="J3">
-        <v>875.44200000000001</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.18</v>
+        <v>10.099</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -849,37 +969,37 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>566.60599999999999</v>
+        <v>149.43899999999999</v>
       </c>
       <c r="O3">
-        <v>1612.3920000000001</v>
+        <v>168.40600000000001</v>
       </c>
       <c r="P3">
-        <v>891.62199999999996</v>
+        <v>10.099</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>18.581</v>
       </c>
       <c r="R3">
-        <v>40628</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1425.0989999999999</v>
+        <v>373.11799999999999</v>
       </c>
       <c r="U3">
-        <v>223.23699999999999</v>
+        <v>70.225999999999999</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>24.838000000000001</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -888,42 +1008,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>89.084999999999994</v>
+        <v>10.101000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40719</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>85.57</v>
+        <v>6.2009999999999996</v>
       </c>
       <c r="D4">
-        <v>704.62900000000002</v>
+        <v>180.898</v>
       </c>
       <c r="E4">
-        <v>477.851</v>
+        <v>96.828000000000003</v>
       </c>
       <c r="F4">
-        <v>242.27799999999999</v>
+        <v>41.557000000000002</v>
       </c>
       <c r="G4">
-        <v>1377.2929999999999</v>
+        <v>313.137</v>
       </c>
       <c r="H4">
-        <v>3189.221</v>
+        <v>575.91200000000003</v>
       </c>
       <c r="I4">
-        <v>343.27800000000002</v>
+        <v>84.385000000000005</v>
       </c>
       <c r="J4">
-        <v>882.28300000000002</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2.77</v>
+        <v>12.759</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -932,37 +1052,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>606.03499999999997</v>
+        <v>171.75899999999999</v>
       </c>
       <c r="O4">
-        <v>1658.2339999999999</v>
+        <v>190.03700000000001</v>
       </c>
       <c r="P4">
-        <v>900.053</v>
+        <v>12.759</v>
       </c>
       <c r="Q4">
-        <v>86.867000000000004</v>
+        <v>-59.21</v>
       </c>
       <c r="R4">
-        <v>40719</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>8660</v>
+        <v>4570</v>
       </c>
       <c r="T4">
-        <v>1530.9870000000001</v>
+        <v>385.875</v>
       </c>
       <c r="U4">
-        <v>310.10399999999998</v>
+        <v>11.016</v>
       </c>
       <c r="V4">
-        <v>144.92699999999999</v>
+        <v>-11.832000000000001</v>
       </c>
       <c r="W4">
-        <v>-6.524</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-2.9220000000000002</v>
+        <v>7.7850000000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -971,81 +1091,81 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>85.57</v>
+        <v>6.2009999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40810</v>
+        <v>37163</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>70.457999999999998</v>
+        <v>13.09</v>
       </c>
       <c r="D5">
-        <v>725.29499999999996</v>
+        <v>217.11600000000001</v>
       </c>
       <c r="E5">
-        <v>521.26300000000003</v>
+        <v>120.52500000000001</v>
       </c>
       <c r="F5">
-        <v>254.75800000000001</v>
+        <v>52.338999999999999</v>
       </c>
       <c r="G5">
-        <v>1299.0909999999999</v>
+        <v>338.887</v>
       </c>
       <c r="H5">
-        <v>3514.087</v>
+        <v>599.81700000000001</v>
       </c>
       <c r="I5">
-        <v>303.54899999999998</v>
+        <v>84.861999999999995</v>
       </c>
       <c r="J5">
-        <v>1170.066</v>
+        <v>21.38</v>
       </c>
       <c r="K5">
-        <v>3.75</v>
+        <v>8.9789999999999992</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-3.78</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>622.048</v>
+        <v>163.01300000000001</v>
       </c>
       <c r="O5">
-        <v>1969.646</v>
+        <v>204.53</v>
       </c>
       <c r="P5">
-        <v>1213.816</v>
+        <v>30.359000000000002</v>
       </c>
       <c r="Q5">
-        <v>-193.489</v>
+        <v>-10.718999999999999</v>
       </c>
       <c r="R5">
-        <v>40810</v>
+        <v>37163</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1544.441</v>
+        <v>395.28699999999998</v>
       </c>
       <c r="U5">
-        <v>116.61499999999999</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="V5">
-        <v>54.146999999999998</v>
+        <v>-20.109000000000002</v>
       </c>
       <c r="W5">
-        <v>-6.5350000000000001</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>306.327</v>
+        <v>14.176</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1054,42 +1174,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>70.457999999999998</v>
+        <v>11.737</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37254</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>99.739000000000004</v>
+        <v>13.861000000000001</v>
       </c>
       <c r="D6">
-        <v>838.17</v>
+        <v>228.69399999999999</v>
       </c>
       <c r="E6">
-        <v>530.178</v>
+        <v>112.214</v>
       </c>
       <c r="F6">
-        <v>294.875</v>
+        <v>62.704000000000001</v>
       </c>
       <c r="G6">
-        <v>1734.0920000000001</v>
+        <v>308.78100000000001</v>
       </c>
       <c r="H6">
-        <v>3942.5540000000001</v>
+        <v>569.01900000000001</v>
       </c>
       <c r="I6">
-        <v>324.34899999999999</v>
+        <v>68.429000000000002</v>
       </c>
       <c r="J6">
-        <v>1465.979</v>
+        <v>1.6</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>6.6310000000000002</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1098,37 +1218,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>666.64099999999996</v>
+        <v>142.11799999999999</v>
       </c>
       <c r="O6">
-        <v>2311.7429999999999</v>
+        <v>163.66900000000001</v>
       </c>
       <c r="P6">
-        <v>1505.979</v>
+        <v>8.2309999999999999</v>
       </c>
       <c r="Q6">
-        <v>414.79500000000002</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37254</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>1630.8109999999999</v>
+        <v>405.35</v>
       </c>
       <c r="U6">
-        <v>531.41</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="V6">
-        <v>165.97499999999999</v>
+        <v>18.597999999999999</v>
       </c>
       <c r="W6">
-        <v>-7.4859999999999998</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>285.291</v>
+        <v>-26.870999999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1137,42 +1257,42 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>99.739000000000004</v>
+        <v>15.214</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>115.727</v>
+        <v>17.91</v>
       </c>
       <c r="D7">
-        <v>778.01700000000005</v>
+        <v>198.49100000000001</v>
       </c>
       <c r="E7">
-        <v>560.74</v>
+        <v>98.754999999999995</v>
       </c>
       <c r="F7">
-        <v>279.27300000000002</v>
+        <v>56.607999999999997</v>
       </c>
       <c r="G7">
-        <v>1790.8879999999999</v>
+        <v>309.108</v>
       </c>
       <c r="H7">
-        <v>4040.0540000000001</v>
+        <v>573.19000000000005</v>
       </c>
       <c r="I7">
-        <v>307.017</v>
+        <v>61.110999999999997</v>
       </c>
       <c r="J7">
-        <v>1467.8679999999999</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>7.3209999999999997</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1181,81 +1301,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>629.75099999999998</v>
+        <v>138.107</v>
       </c>
       <c r="O7">
-        <v>2267.38</v>
+        <v>158.83799999999999</v>
       </c>
       <c r="P7">
-        <v>1507.8679999999999</v>
+        <v>7.3209999999999997</v>
       </c>
       <c r="Q7">
-        <v>22.87</v>
+        <v>35.86</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1772.674</v>
+        <v>414.35199999999998</v>
       </c>
       <c r="U7">
-        <v>554.28</v>
+        <v>36.673999999999999</v>
       </c>
       <c r="V7">
-        <v>91.498000000000005</v>
+        <v>54.856999999999999</v>
       </c>
       <c r="W7">
-        <v>-7.4950000000000001</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-2.1040000000000001</v>
+        <v>-11.297000000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="AA7">
-        <v>115.727</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>182.02099999999999</v>
       </c>
       <c r="E8">
-        <v>572.6</v>
+        <v>82.56</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>46.048999999999999</v>
       </c>
       <c r="G8">
-        <v>1795.9</v>
+        <v>345.375</v>
       </c>
       <c r="H8">
-        <v>4024</v>
+        <v>601.375</v>
       </c>
       <c r="I8">
-        <v>317.3</v>
+        <v>74.448999999999998</v>
       </c>
       <c r="J8">
-        <v>1343.9</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1</v>
+        <v>8.3379999999999992</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1264,120 +1384,120 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>652.70000000000005</v>
+        <v>158.55799999999999</v>
       </c>
       <c r="O8">
-        <v>2171.4</v>
+        <v>183.21299999999999</v>
       </c>
       <c r="P8">
-        <v>1384</v>
+        <v>8.3379999999999992</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>40.15</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="S8">
-        <v>8800</v>
+        <v>4247</v>
       </c>
       <c r="T8">
-        <v>1852.6</v>
+        <v>418.16199999999998</v>
       </c>
       <c r="U8">
-        <v>602.5</v>
+        <v>76.823999999999998</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>51.079000000000001</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>-0.85399999999999998</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>105.6</v>
+        <v>18.777999999999999</v>
       </c>
       <c r="D9">
-        <v>769.8</v>
+        <v>213.215</v>
       </c>
       <c r="E9">
-        <v>584.00800000000004</v>
+        <v>105.777</v>
       </c>
       <c r="F9">
-        <v>285.3</v>
+        <v>61.679000000000002</v>
       </c>
       <c r="G9">
-        <v>1900.731</v>
+        <v>347.19299999999998</v>
       </c>
       <c r="H9">
-        <v>4117.43</v>
+        <v>597.17899999999997</v>
       </c>
       <c r="I9">
-        <v>306.97199999999998</v>
+        <v>78.430999999999997</v>
       </c>
       <c r="J9">
-        <v>1344.934</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.609</v>
+        <v>8.7289999999999992</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>-0.156</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>629.92399999999998</v>
+        <v>167.99600000000001</v>
       </c>
       <c r="O9">
-        <v>2152.1120000000001</v>
+        <v>192.21799999999999</v>
       </c>
       <c r="P9">
-        <v>1386.5429999999999</v>
+        <v>8.7289999999999992</v>
       </c>
       <c r="Q9">
-        <v>29.5</v>
+        <v>-27.61</v>
       </c>
       <c r="R9">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1965.318</v>
+        <v>404.96100000000001</v>
       </c>
       <c r="U9">
-        <v>631.99300000000005</v>
+        <v>49.213999999999999</v>
       </c>
       <c r="V9">
-        <v>44.9</v>
+        <v>9.3580000000000005</v>
       </c>
       <c r="W9">
-        <v>-7.5</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-0.2</v>
+        <v>-31.978999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1386,42 +1506,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>105.6</v>
+        <v>18.777999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41272</v>
+        <v>37618</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>105.9</v>
+        <v>16.814</v>
       </c>
       <c r="D10">
-        <v>883</v>
+        <v>227.52099999999999</v>
       </c>
       <c r="E10">
-        <v>583.90300000000002</v>
+        <v>102.72199999999999</v>
       </c>
       <c r="F10">
-        <v>314.89999999999998</v>
+        <v>64.296000000000006</v>
       </c>
       <c r="G10">
-        <v>1774.1210000000001</v>
+        <v>356.536</v>
       </c>
       <c r="H10">
-        <v>4294.3360000000002</v>
+        <v>607.23199999999997</v>
       </c>
       <c r="I10">
-        <v>321.20499999999998</v>
+        <v>68.97</v>
       </c>
       <c r="J10">
-        <v>1343.7049999999999</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2.6480000000000001</v>
+        <v>9.4689999999999994</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1430,37 +1550,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>634.86500000000001</v>
+        <v>158.126</v>
       </c>
       <c r="O10">
-        <v>2185.8760000000002</v>
+        <v>181.76599999999999</v>
       </c>
       <c r="P10">
-        <v>1386.3530000000001</v>
+        <v>9.4689999999999994</v>
       </c>
       <c r="Q10">
-        <v>-172.5</v>
+        <v>22.559000000000001</v>
       </c>
       <c r="R10">
-        <v>41272</v>
+        <v>37618</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>2108.46</v>
+        <v>425.46600000000001</v>
       </c>
       <c r="U10">
-        <v>459.51400000000001</v>
+        <v>71.772999999999996</v>
       </c>
       <c r="V10">
-        <v>184.7</v>
+        <v>28.151</v>
       </c>
       <c r="W10">
-        <v>-8.5</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-2.1</v>
+        <v>1.42</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1469,42 +1589,42 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>106</v>
+        <v>16.814</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>112</v>
+        <v>14.132</v>
       </c>
       <c r="D11">
-        <v>919.8</v>
+        <v>202.61600000000001</v>
       </c>
       <c r="E11">
-        <v>618.66600000000005</v>
+        <v>84.972999999999999</v>
       </c>
       <c r="F11">
-        <v>331.4</v>
+        <v>58.706000000000003</v>
       </c>
       <c r="G11">
-        <v>1697.6279999999999</v>
+        <v>375.916</v>
       </c>
       <c r="H11">
-        <v>4495.8879999999999</v>
+        <v>628.72799999999995</v>
       </c>
       <c r="I11">
-        <v>325.41500000000002</v>
+        <v>73.489000000000004</v>
       </c>
       <c r="J11">
-        <v>1344.99</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>4.5129999999999999</v>
+        <v>8.7409999999999997</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1513,81 +1633,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>673.62</v>
+        <v>162.053</v>
       </c>
       <c r="O11">
-        <v>2270.56</v>
+        <v>190.392</v>
       </c>
       <c r="P11">
-        <v>1390.788</v>
+        <v>8.7409999999999997</v>
       </c>
       <c r="Q11">
-        <v>-158.69999999999999</v>
+        <v>33.46</v>
       </c>
       <c r="R11">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2225.328</v>
+        <v>438.33600000000001</v>
       </c>
       <c r="U11">
-        <v>300.827</v>
+        <v>105.233</v>
       </c>
       <c r="V11">
-        <v>150.5</v>
+        <v>44.423999999999999</v>
       </c>
       <c r="W11">
-        <v>-8.5</v>
+        <v>-1.7370000000000001</v>
       </c>
       <c r="X11">
-        <v>-5.8</v>
+        <v>-2.5779999999999998</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>8.6</v>
+        <v>-1.2330000000000001</v>
       </c>
       <c r="AA11">
-        <v>111.9</v>
+        <v>14.132</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>118.4</v>
+        <v>4.3239999999999998</v>
       </c>
       <c r="D12">
-        <v>967.2</v>
+        <v>190.74799999999999</v>
       </c>
       <c r="E12">
-        <v>651.9</v>
+        <v>87.018000000000001</v>
       </c>
       <c r="F12">
-        <v>359.4</v>
+        <v>53.343000000000004</v>
       </c>
       <c r="G12">
-        <v>2257.1999999999998</v>
+        <v>379.197</v>
       </c>
       <c r="H12">
-        <v>5337</v>
+        <v>643.97</v>
       </c>
       <c r="I12">
-        <v>382</v>
+        <v>72.186000000000007</v>
       </c>
       <c r="J12">
-        <v>1924.7</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>8.98</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1596,164 +1716,164 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>740.1</v>
+        <v>166.542</v>
       </c>
       <c r="O12">
-        <v>3004.4</v>
+        <v>195.54599999999999</v>
       </c>
       <c r="P12">
-        <v>1970.9</v>
+        <v>8.98</v>
       </c>
       <c r="Q12">
-        <v>479.1</v>
+        <v>-11.406000000000001</v>
       </c>
       <c r="R12">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="S12">
-        <v>9900</v>
+        <v>3983</v>
       </c>
       <c r="T12">
-        <v>2332.6</v>
+        <v>448.42399999999998</v>
       </c>
       <c r="U12">
-        <v>779.9</v>
+        <v>93.826999999999998</v>
       </c>
       <c r="V12">
-        <v>173.7</v>
+        <v>-1.6990000000000001</v>
       </c>
       <c r="W12">
-        <v>-8.5</v>
+        <v>-1.7470000000000001</v>
       </c>
       <c r="X12">
-        <v>585.29999999999995</v>
+        <v>3.3090000000000002</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="AA12">
-        <v>118.4</v>
+        <v>4.3239999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>111.4</v>
+        <v>16.507999999999999</v>
       </c>
       <c r="D13">
-        <v>933.4</v>
+        <v>211.839</v>
       </c>
       <c r="E13">
-        <v>702.6</v>
+        <v>99.2</v>
       </c>
       <c r="F13">
-        <v>356.3</v>
+        <v>60.02</v>
       </c>
       <c r="G13">
-        <v>2367.1999999999998</v>
+        <v>373.32100000000003</v>
       </c>
       <c r="H13">
-        <v>5508.8</v>
+        <v>650.44500000000005</v>
       </c>
       <c r="I13">
-        <v>303.5</v>
+        <v>67.616</v>
       </c>
       <c r="J13">
-        <v>1962.5</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>6.1</v>
+        <v>7.1909999999999998</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-1.631</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>743.5</v>
+        <v>156.666</v>
       </c>
       <c r="O13">
-        <v>3038.9</v>
+        <v>186.93100000000001</v>
       </c>
       <c r="P13">
-        <v>2009.8</v>
+        <v>7.1909999999999998</v>
       </c>
       <c r="Q13">
-        <v>36.700000000000003</v>
+        <v>-10.781000000000001</v>
       </c>
       <c r="R13">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2469.9</v>
+        <v>463.51400000000001</v>
       </c>
       <c r="U13">
-        <v>816.6</v>
+        <v>83.046000000000006</v>
       </c>
       <c r="V13">
-        <v>98.7</v>
+        <v>8.1950000000000003</v>
       </c>
       <c r="W13">
-        <v>-8.5</v>
+        <v>-1.7509999999999999</v>
       </c>
       <c r="X13">
-        <v>-28.8</v>
+        <v>-3.3250000000000002</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>111.4</v>
+        <v>16.507999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41636</v>
+        <v>37982</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-86.1</v>
+        <v>38.234999999999999</v>
       </c>
       <c r="D14">
-        <v>979</v>
+        <v>247.37700000000001</v>
       </c>
       <c r="E14">
-        <v>769.8</v>
+        <v>123.83199999999999</v>
       </c>
       <c r="F14">
-        <v>360.7</v>
+        <v>76.179000000000002</v>
       </c>
       <c r="G14">
-        <v>2286</v>
+        <v>417.08</v>
       </c>
       <c r="H14">
-        <v>13712.8</v>
+        <v>707.245</v>
       </c>
       <c r="I14">
-        <v>306.7</v>
+        <v>81.486999999999995</v>
       </c>
       <c r="J14">
-        <v>3168.9</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8.109</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1762,81 +1882,81 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>961.8</v>
+        <v>173.917</v>
       </c>
       <c r="O14">
-        <v>5211.6000000000004</v>
+        <v>205.10499999999999</v>
       </c>
       <c r="P14">
-        <v>3310.1</v>
+        <v>8.109</v>
       </c>
       <c r="Q14">
-        <v>-295.5</v>
+        <v>27.763000000000002</v>
       </c>
       <c r="R14">
-        <v>41636</v>
+        <v>37982</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>8501.2000000000007</v>
+        <v>502.14</v>
       </c>
       <c r="U14">
-        <v>521.1</v>
+        <v>110.809</v>
       </c>
       <c r="V14">
-        <v>121.6</v>
+        <v>50.345999999999997</v>
       </c>
       <c r="W14">
-        <v>-9.5</v>
+        <v>-2.4510000000000001</v>
       </c>
       <c r="X14">
-        <v>1151.2</v>
+        <v>-0.83699999999999997</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-86</v>
+        <v>38.234999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41727</v>
+        <v>38073</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>48.1</v>
+        <v>17.739000000000001</v>
       </c>
       <c r="D15">
-        <v>1004.2</v>
+        <v>232.863</v>
       </c>
       <c r="E15">
-        <v>793.1</v>
+        <v>102.29900000000001</v>
       </c>
       <c r="F15">
-        <v>315</v>
+        <v>68.754999999999995</v>
       </c>
       <c r="G15">
-        <v>2304.4</v>
+        <v>463.45</v>
       </c>
       <c r="H15">
-        <v>13742.7</v>
+        <v>746.64700000000005</v>
       </c>
       <c r="I15">
-        <v>325.3</v>
+        <v>89.289000000000001</v>
       </c>
       <c r="J15">
-        <v>3134.4</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>9.7460000000000004</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1845,81 +1965,81 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>953</v>
+        <v>187.96799999999999</v>
       </c>
       <c r="O15">
-        <v>5184</v>
+        <v>219.773</v>
       </c>
       <c r="P15">
-        <v>3276.1</v>
+        <v>9.7460000000000004</v>
       </c>
       <c r="Q15">
-        <v>88.3</v>
+        <v>3.3180000000000001</v>
       </c>
       <c r="R15">
-        <v>41727</v>
+        <v>38073</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>8558.7000000000007</v>
+        <v>526.87400000000002</v>
       </c>
       <c r="U15">
-        <v>609.4</v>
+        <v>156.417</v>
       </c>
       <c r="V15">
-        <v>180.5</v>
+        <v>45.667000000000002</v>
       </c>
       <c r="W15">
-        <v>-14</v>
+        <v>-2.4620000000000002</v>
       </c>
       <c r="X15">
-        <v>-47.5</v>
+        <v>5.0709999999999997</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>66.400000000000006</v>
+        <v>-42.29</v>
       </c>
       <c r="AA15">
-        <v>48.1</v>
+        <v>17.739000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41818</v>
+        <v>38164</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>131.9</v>
+        <v>8.0850000000000009</v>
       </c>
       <c r="D16">
-        <v>1144.2</v>
+        <v>206.125</v>
       </c>
       <c r="E16">
-        <v>935.1</v>
+        <v>86.04</v>
       </c>
       <c r="F16">
-        <v>415.8</v>
+        <v>68.555999999999997</v>
       </c>
       <c r="G16">
-        <v>2550.9</v>
+        <v>472.22899999999998</v>
       </c>
       <c r="H16">
-        <v>13852.8</v>
+        <v>759.09400000000005</v>
       </c>
       <c r="I16">
-        <v>364.3</v>
+        <v>88.858000000000004</v>
       </c>
       <c r="J16">
-        <v>3071.4</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>9.5280000000000005</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1928,164 +2048,164 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1074.7</v>
+        <v>187.48599999999999</v>
       </c>
       <c r="O16">
-        <v>5159.1000000000004</v>
+        <v>222.86199999999999</v>
       </c>
       <c r="P16">
-        <v>3215.1</v>
+        <v>9.5280000000000005</v>
       </c>
       <c r="Q16">
-        <v>190.1</v>
+        <v>-22.3</v>
       </c>
       <c r="R16">
-        <v>41818</v>
+        <v>38164</v>
       </c>
       <c r="S16">
-        <v>10220</v>
+        <v>3891</v>
       </c>
       <c r="T16">
-        <v>8693.7000000000007</v>
+        <v>536.23199999999997</v>
       </c>
       <c r="U16">
-        <v>799.5</v>
+        <v>8.3919999999999995</v>
       </c>
       <c r="V16">
-        <v>292.7</v>
+        <v>14.319000000000001</v>
       </c>
       <c r="W16">
-        <v>-14.1</v>
+        <v>-2.472</v>
       </c>
       <c r="X16">
-        <v>-46.9</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>15</v>
+        <v>-35.933999999999997</v>
       </c>
       <c r="AA16">
-        <v>131.9</v>
+        <v>8.0850000000000009</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41909</v>
+        <v>38255</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>96.3</v>
+        <v>17.577999999999999</v>
       </c>
       <c r="D17">
-        <v>951.5</v>
+        <v>227.71899999999999</v>
       </c>
       <c r="E17">
-        <v>869.4</v>
+        <v>112.624</v>
       </c>
       <c r="F17">
-        <v>321.8</v>
+        <v>64.712999999999994</v>
       </c>
       <c r="G17">
-        <v>2634</v>
+        <v>476.59800000000001</v>
       </c>
       <c r="H17">
-        <v>13781</v>
+        <v>762.13</v>
       </c>
       <c r="I17">
-        <v>309</v>
+        <v>83.516000000000005</v>
       </c>
       <c r="J17">
-        <v>3057.7</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>9.4649999999999999</v>
       </c>
       <c r="L17">
-        <v>-2.1</v>
+        <v>-9.1999999999999998E-2</v>
       </c>
       <c r="M17">
-        <v>-39.5</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1017.9</v>
+        <v>170.05</v>
       </c>
       <c r="O17">
-        <v>5064.3</v>
+        <v>206.20699999999999</v>
       </c>
       <c r="P17">
-        <v>3199.2</v>
+        <v>9.4649999999999999</v>
       </c>
       <c r="Q17">
-        <v>92</v>
+        <v>1.3420000000000001</v>
       </c>
       <c r="R17">
-        <v>41909</v>
+        <v>38255</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>8716.7000000000007</v>
+        <v>555.923</v>
       </c>
       <c r="U17">
-        <v>891.5</v>
+        <v>136.54400000000001</v>
       </c>
       <c r="V17">
-        <v>195.1</v>
+        <v>-22.977</v>
       </c>
       <c r="W17">
-        <v>-14.1</v>
+        <v>-2.4870000000000001</v>
       </c>
       <c r="X17">
-        <v>-61.3</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>31.05</v>
       </c>
       <c r="AA17">
-        <v>96.3</v>
+        <v>17.577999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42000</v>
+        <v>38346</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>15.837999999999999</v>
       </c>
       <c r="D18">
-        <v>1071.7</v>
+        <v>251.74799999999999</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>110.931</v>
       </c>
       <c r="F18">
-        <v>383.8</v>
+        <v>67.055999999999997</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>500.29399999999998</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>786.41600000000005</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>83.299000000000007</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>9.7579999999999991</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2094,164 +2214,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>174.28399999999999</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>211.41399999999999</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>9.7579999999999991</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-1.2969999999999999</v>
       </c>
       <c r="R18">
-        <v>42000</v>
+        <v>38346</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>575.00199999999995</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>175.702</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>44.430999999999997</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>-2.847</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-37.975000000000001</v>
       </c>
       <c r="AA18">
-        <v>70.2</v>
+        <v>15.837999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42091</v>
+        <v>38437</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19">
-        <v>-22.2</v>
+        <v>-379.43599999999998</v>
       </c>
       <c r="D19">
-        <v>967.2</v>
+        <v>220.09299999999999</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>203.84899999999999</v>
       </c>
       <c r="F19">
-        <v>369.4</v>
+        <v>62.960999999999999</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>655.12400000000002</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1731.181</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>141.62100000000001</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>666.70600000000002</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.334</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-13.6</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>362.12400000000002</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1122.2070000000001</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>689.04</v>
       </c>
       <c r="Q19">
-        <v>-165.7</v>
+        <v>32.298000000000002</v>
       </c>
       <c r="R19">
-        <v>42091</v>
+        <v>38437</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>608.97400000000005</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>40.734999999999999</v>
       </c>
       <c r="V19">
-        <v>180.2</v>
+        <v>32.938000000000002</v>
       </c>
       <c r="W19">
-        <v>-17.600000000000001</v>
+        <v>-2.8610000000000002</v>
       </c>
       <c r="X19">
-        <v>-31.6</v>
+        <v>615.59100000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>169.83</v>
       </c>
       <c r="AA19">
-        <v>-22.2</v>
+        <v>-379.43599999999998</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42182</v>
+        <v>38528</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20">
-        <v>-22.3</v>
+        <v>-6.9630000000000001</v>
       </c>
       <c r="D20">
-        <v>1415.2</v>
+        <v>324.53800000000001</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>210.30799999999999</v>
       </c>
       <c r="F20">
-        <v>616.70000000000005</v>
+        <v>89.051000000000002</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>608.80700000000002</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1704.9760000000001</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>142.78899999999999</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>656.12800000000004</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>25.344999999999999</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2260,164 +2380,164 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>340.54199999999997</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1114.1389999999999</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>681.47299999999996</v>
       </c>
       <c r="Q20">
-        <v>-2644.8</v>
+        <v>-24.027999999999999</v>
       </c>
       <c r="R20">
-        <v>42182</v>
+        <v>38528</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>5848</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>590.83699999999999</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>16.707000000000001</v>
       </c>
       <c r="V20">
-        <v>383.2</v>
+        <v>23.251999999999999</v>
       </c>
       <c r="W20">
-        <v>-18.3</v>
+        <v>-16.314</v>
       </c>
       <c r="X20">
-        <v>-955.2</v>
+        <v>-45.899000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>14.207000000000001</v>
       </c>
       <c r="AA20">
-        <v>-22.2</v>
+        <v>-6.9630000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42273</v>
+        <v>38619</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21">
-        <v>260.89999999999998</v>
+        <v>12.911</v>
       </c>
       <c r="D21">
-        <v>1273.0999999999999</v>
+        <v>319.73399999999998</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>212.43299999999999</v>
       </c>
       <c r="F21">
-        <v>535.20000000000005</v>
+        <v>91.677999999999997</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>612.20899999999995</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1691.037</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>142.36099999999999</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>670.81399999999996</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.303000000000001</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>-6.1040000000000001</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>333.28500000000003</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1098.4000000000001</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>690.11699999999996</v>
       </c>
       <c r="Q21">
-        <v>-279.10000000000002</v>
+        <v>8.4109999999999996</v>
       </c>
       <c r="R21">
-        <v>42273</v>
+        <v>38619</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>592.63699999999994</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>25.117999999999999</v>
       </c>
       <c r="V21">
-        <v>54</v>
+        <v>17.722000000000001</v>
       </c>
       <c r="W21">
-        <v>-18.3</v>
+        <v>-3.7410000000000001</v>
       </c>
       <c r="X21">
-        <v>44.3</v>
+        <v>-1.903</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1.9339999999999999</v>
       </c>
       <c r="AA21">
-        <v>260.89999999999998</v>
+        <v>12.911</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38710</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22">
-        <v>-218.4</v>
+        <v>25.366</v>
       </c>
       <c r="D22">
-        <v>1359</v>
+        <v>359.697</v>
       </c>
       <c r="E22">
-        <v>1189</v>
+        <v>235.672</v>
       </c>
       <c r="F22">
-        <v>543.70000000000005</v>
+        <v>105.57</v>
       </c>
       <c r="G22">
-        <v>2791.6</v>
+        <v>599.06500000000005</v>
       </c>
       <c r="H22">
-        <v>19349.599999999999</v>
+        <v>1684.076</v>
       </c>
       <c r="I22">
-        <v>555.79999999999995</v>
+        <v>149.541</v>
       </c>
       <c r="J22">
-        <v>4971.8999999999996</v>
+        <v>634.95600000000002</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>20.975000000000001</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2426,164 +2546,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2552.1999999999998</v>
+        <v>344.476</v>
       </c>
       <c r="O22">
-        <v>9242.7999999999993</v>
+        <v>1078.421</v>
       </c>
       <c r="P22">
-        <v>6032.4</v>
+        <v>655.93100000000004</v>
       </c>
       <c r="Q22">
-        <v>-88.7</v>
+        <v>-9.2780000000000005</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38710</v>
       </c>
       <c r="S22">
-        <v>13300</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>10106.799999999999</v>
+        <v>605.65499999999997</v>
       </c>
       <c r="U22">
-        <v>417.8</v>
+        <v>15.84</v>
       </c>
       <c r="V22">
-        <v>146.9</v>
+        <v>37.515999999999998</v>
       </c>
       <c r="W22">
-        <v>-18</v>
+        <v>-3.9609999999999999</v>
       </c>
       <c r="X22">
-        <v>105.3</v>
+        <v>-44.3</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>4.7649999999999997</v>
       </c>
       <c r="AA22">
-        <v>-218.3</v>
+        <v>25.366</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42462</v>
+        <v>38801</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23">
-        <v>-529.20000000000005</v>
+        <v>20.861000000000001</v>
       </c>
       <c r="D23">
-        <v>1347.3</v>
+        <v>332.32100000000003</v>
       </c>
       <c r="E23">
-        <v>1188</v>
+        <v>220.42500000000001</v>
       </c>
       <c r="F23">
-        <v>533.1</v>
+        <v>97.278000000000006</v>
       </c>
       <c r="G23">
-        <v>3014.6</v>
+        <v>593.04399999999998</v>
       </c>
       <c r="H23">
-        <v>19499.7</v>
+        <v>1670.874</v>
       </c>
       <c r="I23">
-        <v>557.20000000000005</v>
+        <v>163.494</v>
       </c>
       <c r="J23">
-        <v>5902.7</v>
+        <v>594.36</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>26.969000000000001</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-730.2</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2222.4</v>
+        <v>347.95299999999997</v>
       </c>
       <c r="O23">
-        <v>9774.2999999999993</v>
+        <v>1046.511</v>
       </c>
       <c r="P23">
-        <v>6553.4</v>
+        <v>621.32899999999995</v>
       </c>
       <c r="Q23">
-        <v>171.1</v>
+        <v>13.327999999999999</v>
       </c>
       <c r="R23">
-        <v>42462</v>
+        <v>38801</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>9725.4</v>
+        <v>624.36300000000006</v>
       </c>
       <c r="U23">
-        <v>588.9</v>
+        <v>29.167999999999999</v>
       </c>
       <c r="V23">
-        <v>98.5</v>
+        <v>55.393999999999998</v>
       </c>
       <c r="W23">
-        <v>-20.8</v>
+        <v>-3.9580000000000002</v>
       </c>
       <c r="X23">
-        <v>437.4</v>
+        <v>-39.941000000000003</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>3.5510000000000002</v>
       </c>
       <c r="AA23">
-        <v>-529.20000000000005</v>
+        <v>20.861000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42553</v>
+        <v>38899</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24">
-        <v>-534.29999999999995</v>
+        <v>12.262</v>
       </c>
       <c r="D24">
-        <v>1340.5</v>
+        <v>355.06900000000002</v>
       </c>
       <c r="E24">
-        <v>1194.0999999999999</v>
+        <v>240.13</v>
       </c>
       <c r="F24">
-        <v>546.5</v>
+        <v>108.295</v>
       </c>
       <c r="G24">
-        <v>3027.8</v>
+        <v>657.178</v>
       </c>
       <c r="H24">
-        <v>18291.2</v>
+        <v>1750.624</v>
       </c>
       <c r="I24">
-        <v>509.1</v>
+        <v>179.74</v>
       </c>
       <c r="J24">
-        <v>5652.5</v>
+        <v>621.71699999999998</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>20.081</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2592,164 +2712,164 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2060.1999999999998</v>
+        <v>371.43099999999998</v>
       </c>
       <c r="O24">
-        <v>9242.7999999999993</v>
+        <v>1109.8800000000001</v>
       </c>
       <c r="P24">
-        <v>6410.6</v>
+        <v>641.798</v>
       </c>
       <c r="Q24">
-        <v>52.9</v>
+        <v>-10.15</v>
       </c>
       <c r="R24">
-        <v>42553</v>
+        <v>38899</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>5969</v>
       </c>
       <c r="T24">
-        <v>9048.4</v>
+        <v>640.74400000000003</v>
       </c>
       <c r="U24">
-        <v>641.79999999999995</v>
+        <v>19.018000000000001</v>
       </c>
       <c r="V24">
-        <v>131.19999999999999</v>
+        <v>15.898999999999999</v>
       </c>
       <c r="W24">
-        <v>-20.8</v>
+        <v>-3.9529999999999998</v>
       </c>
       <c r="X24">
-        <v>-131.9</v>
+        <v>9.109</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-19.530999999999999</v>
       </c>
       <c r="AA24">
-        <v>-534.29999999999995</v>
+        <v>12.262</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42644</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25">
-        <v>-1590.2</v>
+        <v>16.882000000000001</v>
       </c>
       <c r="D25">
-        <v>1261.5999999999999</v>
+        <v>340.21499999999997</v>
       </c>
       <c r="E25">
-        <v>1124.0999999999999</v>
+        <v>230.239</v>
       </c>
       <c r="F25">
-        <v>484.5</v>
+        <v>92.814999999999998</v>
       </c>
       <c r="G25">
-        <v>2622</v>
+        <v>691.00900000000001</v>
       </c>
       <c r="H25">
-        <v>15888.1</v>
+        <v>1815.674</v>
       </c>
       <c r="I25">
-        <v>502.9</v>
+        <v>172.68</v>
       </c>
       <c r="J25">
-        <v>5638</v>
+        <v>678.27200000000005</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>5.74</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>-14.331</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1512.8</v>
+        <v>333.464</v>
       </c>
       <c r="O25">
-        <v>8405.5</v>
+        <v>1154.085</v>
       </c>
       <c r="P25">
-        <v>5903</v>
+        <v>684.01199999999994</v>
       </c>
       <c r="Q25">
-        <v>-279.10000000000002</v>
+        <v>14.009</v>
       </c>
       <c r="R25">
-        <v>42644</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>7482.6</v>
+        <v>661.58900000000006</v>
       </c>
       <c r="U25">
-        <v>362.7</v>
+        <v>33.027000000000001</v>
       </c>
       <c r="V25">
-        <v>219</v>
+        <v>-6.4039999999999999</v>
       </c>
       <c r="W25">
-        <v>-20.8</v>
+        <v>-3.9390000000000001</v>
       </c>
       <c r="X25">
-        <v>-539.6</v>
+        <v>28.33</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-1.266</v>
       </c>
       <c r="AA25">
-        <v>-1590.2</v>
+        <v>16.882000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26">
-        <v>-1359.1</v>
+        <v>21.088000000000001</v>
       </c>
       <c r="D26">
-        <v>1331.3</v>
+        <v>370.62900000000002</v>
       </c>
       <c r="E26">
-        <v>1176</v>
+        <v>246.60300000000001</v>
       </c>
       <c r="F26">
-        <v>487.7</v>
+        <v>96.481999999999999</v>
       </c>
       <c r="G26">
-        <v>2805.3</v>
+        <v>717.76499999999999</v>
       </c>
       <c r="H26">
-        <v>13870.1</v>
+        <v>1854.0630000000001</v>
       </c>
       <c r="I26">
-        <v>471.7</v>
+        <v>173.00800000000001</v>
       </c>
       <c r="J26">
-        <v>5224.5</v>
+        <v>668.78399999999999</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>18.332999999999998</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2758,164 +2878,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1836.3</v>
+        <v>351.65800000000002</v>
       </c>
       <c r="O26">
-        <v>7912.5</v>
+        <v>1161.79</v>
       </c>
       <c r="P26">
-        <v>5797.3</v>
+        <v>687.11699999999996</v>
       </c>
       <c r="Q26">
-        <v>259.60000000000002</v>
+        <v>6.6079999999999997</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="S26">
-        <v>12800</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>5957.6</v>
+        <v>692.27300000000002</v>
       </c>
       <c r="U26">
-        <v>622.29999999999995</v>
+        <v>39.634999999999998</v>
       </c>
       <c r="V26">
-        <v>206.2</v>
+        <v>24.039000000000001</v>
       </c>
       <c r="W26">
-        <v>-20.8</v>
+        <v>-4.1769999999999996</v>
       </c>
       <c r="X26">
-        <v>-34.6</v>
+        <v>-5.0510000000000002</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>4.5</v>
+        <v>-4.8150000000000004</v>
       </c>
       <c r="AA26">
-        <v>-1359.1</v>
+        <v>21.088000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>71.599999999999994</v>
+        <v>17.056000000000001</v>
       </c>
       <c r="D27">
-        <v>1194</v>
+        <v>362.28800000000001</v>
       </c>
       <c r="E27">
-        <v>1050.2</v>
+        <v>246.58199999999999</v>
       </c>
       <c r="F27">
-        <v>464.4</v>
+        <v>99.537000000000006</v>
       </c>
       <c r="G27">
-        <v>5113.3999999999996</v>
+        <v>712.90200000000004</v>
       </c>
       <c r="H27">
-        <v>13979.4</v>
+        <v>1890.5609999999999</v>
       </c>
       <c r="I27">
-        <v>476.3</v>
+        <v>158.499</v>
       </c>
       <c r="J27">
-        <v>4618.8999999999996</v>
+        <v>709.34199999999998</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>3.7629999999999999</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-13.6</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>2485.1999999999998</v>
+        <v>339.48700000000002</v>
       </c>
       <c r="O27">
-        <v>7912.1</v>
+        <v>1185.3040000000001</v>
       </c>
       <c r="P27">
-        <v>5794.3</v>
+        <v>728.01499999999999</v>
       </c>
       <c r="Q27">
-        <v>2455.5</v>
+        <v>-4.7619999999999996</v>
       </c>
       <c r="R27">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>6067.3</v>
+        <v>705.25699999999995</v>
       </c>
       <c r="U27">
-        <v>3077.8</v>
+        <v>34.872999999999998</v>
       </c>
       <c r="V27">
-        <v>194.5</v>
+        <v>56.526000000000003</v>
       </c>
       <c r="W27">
-        <v>-23</v>
+        <v>-4.165</v>
       </c>
       <c r="X27">
-        <v>-37.200000000000003</v>
+        <v>32.545000000000002</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>2200</v>
+        <v>-23.73</v>
       </c>
       <c r="AA27">
-        <v>71.599999999999994</v>
+        <v>17.056000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28">
-        <v>-69.599999999999994</v>
+        <v>18.771000000000001</v>
       </c>
       <c r="D28">
-        <v>1237.9000000000001</v>
+        <v>374.29599999999999</v>
       </c>
       <c r="E28">
-        <v>1065.9000000000001</v>
+        <v>282.04500000000002</v>
       </c>
       <c r="F28">
-        <v>504.6</v>
+        <v>110.74</v>
       </c>
       <c r="G28">
-        <v>2821.3</v>
+        <v>719.06</v>
       </c>
       <c r="H28">
-        <v>11792.2</v>
+        <v>1925.154</v>
       </c>
       <c r="I28">
-        <v>480.8</v>
+        <v>164.31800000000001</v>
       </c>
       <c r="J28">
-        <v>3267.9</v>
+        <v>650.76199999999994</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>11.776</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2924,164 +3044,164 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1629.7</v>
+        <v>379.83699999999999</v>
       </c>
       <c r="O28">
-        <v>5711</v>
+        <v>1170.6849999999999</v>
       </c>
       <c r="P28">
-        <v>3674.8</v>
+        <v>677.91899999999998</v>
       </c>
       <c r="Q28">
-        <v>-2317</v>
+        <v>-4.5679999999999996</v>
       </c>
       <c r="R28">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="T28">
-        <v>6081.2</v>
+        <v>754.46900000000005</v>
       </c>
       <c r="U28">
-        <v>760.8</v>
+        <v>30.305</v>
       </c>
       <c r="V28">
-        <v>90.8</v>
+        <v>54.762</v>
       </c>
       <c r="W28">
-        <v>-23</v>
+        <v>-4.1950000000000003</v>
       </c>
       <c r="X28">
-        <v>-2411.3000000000002</v>
+        <v>-46.226999999999997</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>7.3159999999999998</v>
       </c>
       <c r="AA28">
-        <v>-69.599999999999994</v>
+        <v>18.771000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29">
-        <v>44.4</v>
+        <v>34.018999999999998</v>
       </c>
       <c r="D29">
-        <v>1231.3</v>
+        <v>382.74</v>
       </c>
       <c r="E29">
-        <v>1076.5999999999999</v>
+        <v>283.44299999999998</v>
       </c>
       <c r="F29">
-        <v>497.8</v>
+        <v>117.271</v>
       </c>
       <c r="G29">
-        <v>2971.8</v>
+        <v>747.34199999999998</v>
       </c>
       <c r="H29">
-        <v>11842.6</v>
+        <v>1946.652</v>
       </c>
       <c r="I29">
-        <v>477.1</v>
+        <v>170.63900000000001</v>
       </c>
       <c r="J29">
-        <v>3275.7</v>
+        <v>642.62900000000002</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>11.677</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="N29">
-        <v>1732.5</v>
+        <v>344.04899999999998</v>
       </c>
       <c r="O29">
-        <v>5800.8</v>
+        <v>1175.4259999999999</v>
       </c>
       <c r="P29">
-        <v>3692.8</v>
+        <v>669.62</v>
       </c>
       <c r="Q29">
-        <v>15.1</v>
+        <v>16.532</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>6041.8</v>
+        <v>771.226</v>
       </c>
       <c r="U29">
-        <v>775.9</v>
+        <v>46.837000000000003</v>
       </c>
       <c r="V29">
-        <v>196.7</v>
+        <v>26.994</v>
       </c>
       <c r="W29">
-        <v>-22.7</v>
+        <v>-4.2140000000000004</v>
       </c>
       <c r="X29">
-        <v>-172.5</v>
+        <v>-11.868</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>15.763999999999999</v>
       </c>
       <c r="AA29">
-        <v>44.5</v>
+        <v>34.018999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39445</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C30">
-        <v>73.2</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1283.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1151.3</v>
+        <v>311.01299999999998</v>
       </c>
       <c r="F30">
-        <v>512.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>2819.6</v>
+        <v>803.48599999999999</v>
       </c>
       <c r="H30">
-        <v>11628.8</v>
+        <v>2039.31</v>
       </c>
       <c r="I30">
-        <v>450.2</v>
+        <v>194.214</v>
       </c>
       <c r="J30">
-        <v>3270.8</v>
+        <v>648.077</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>3.9369999999999998</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3090,37 +3210,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1436</v>
+        <v>368.702</v>
       </c>
       <c r="O30">
-        <v>5458.2</v>
+        <v>1222.914</v>
       </c>
       <c r="P30">
-        <v>3341.2</v>
+        <v>668.553</v>
       </c>
       <c r="Q30">
-        <v>-97.2</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39445</v>
       </c>
       <c r="S30">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>6170.6</v>
+        <v>816.39599999999996</v>
       </c>
       <c r="U30">
-        <v>678.7</v>
+        <v>72.162999999999997</v>
       </c>
       <c r="V30">
-        <v>216.9</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>-22.4</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-383.7</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3129,81 +3249,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>73.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C31">
-        <v>80.8</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1217</v>
+        <v>480.64</v>
       </c>
       <c r="E31">
-        <v>1149.5</v>
+        <v>372.52600000000001</v>
       </c>
       <c r="F31">
-        <v>492.7</v>
+        <v>153.18100000000001</v>
       </c>
       <c r="G31">
-        <v>2900.7</v>
+        <v>855.851</v>
       </c>
       <c r="H31">
-        <v>11639.6</v>
+        <v>2197.3850000000002</v>
       </c>
       <c r="I31">
-        <v>512.20000000000005</v>
+        <v>229.744</v>
       </c>
       <c r="J31">
-        <v>3280.6</v>
+        <v>697.59799999999996</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>10.169</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-450.7</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>1392.5</v>
+        <v>416.036</v>
       </c>
       <c r="O31">
-        <v>5434</v>
+        <v>1336.8209999999999</v>
       </c>
       <c r="P31">
-        <v>3338.6</v>
+        <v>725.36500000000001</v>
       </c>
       <c r="Q31">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>6205.6</v>
+        <v>860.56399999999996</v>
       </c>
       <c r="U31">
-        <v>687.3</v>
+        <v>64.402000000000001</v>
       </c>
       <c r="V31">
-        <v>172.4</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>-26.7</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-162.6</v>
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3212,39 +3332,39 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>80.8</v>
+        <v>39.966999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32">
-        <v>36.200000000000003</v>
+        <v>27.498000000000001</v>
       </c>
       <c r="D32">
-        <v>1186.4000000000001</v>
+        <v>474.28199999999998</v>
       </c>
       <c r="E32">
-        <v>1149</v>
+        <v>317.875</v>
       </c>
       <c r="F32">
-        <v>471</v>
+        <v>151.83000000000001</v>
       </c>
       <c r="G32">
-        <v>2778.5</v>
+        <v>1160.191</v>
       </c>
       <c r="H32">
-        <v>11225.6</v>
+        <v>2578.4090000000001</v>
       </c>
       <c r="I32">
-        <v>533.4</v>
+        <v>235.922</v>
       </c>
       <c r="J32">
-        <v>3085.3</v>
+        <v>895.09500000000003</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3256,120 +3376,120 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1537.6</v>
+        <v>488.99400000000003</v>
       </c>
       <c r="O32">
-        <v>5328.3</v>
+        <v>1644.694</v>
       </c>
       <c r="P32">
-        <v>3283</v>
+        <v>915.19</v>
       </c>
       <c r="Q32">
-        <v>-160.80000000000001</v>
+        <v>254.202</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="T32">
-        <v>5897.3</v>
+        <v>933.71500000000003</v>
       </c>
       <c r="U32">
-        <v>526.5</v>
+        <v>318.59899999999999</v>
       </c>
       <c r="V32">
-        <v>82.3</v>
+        <v>112.066</v>
       </c>
       <c r="W32">
-        <v>-26.1</v>
+        <v>-4.6680000000000001</v>
       </c>
       <c r="X32">
-        <v>-199.6</v>
+        <v>169.43299999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-7.5</v>
+        <v>-11.585000000000001</v>
       </c>
       <c r="AA32">
-        <v>36.200000000000003</v>
+        <v>27.498000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C33">
-        <v>-67.400000000000006</v>
+        <v>37.957999999999998</v>
       </c>
       <c r="D33">
-        <v>1133.0999999999999</v>
+        <v>455.548</v>
       </c>
       <c r="E33">
-        <v>1108.5999999999999</v>
+        <v>340.13799999999998</v>
       </c>
       <c r="F33">
-        <v>424.8</v>
+        <v>135.98699999999999</v>
       </c>
       <c r="G33">
-        <v>2768.8</v>
+        <v>1108.674</v>
       </c>
       <c r="H33">
-        <v>10942.9</v>
+        <v>2493.3710000000001</v>
       </c>
       <c r="I33">
-        <v>503.6</v>
+        <v>270.61399999999998</v>
       </c>
       <c r="J33">
-        <v>3071</v>
+        <v>893.43299999999999</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>-11.006</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-14.287000000000001</v>
       </c>
       <c r="N33">
-        <v>1493.5</v>
+        <v>464.85</v>
       </c>
       <c r="O33">
-        <v>5282.9</v>
+        <v>1605.1130000000001</v>
       </c>
       <c r="P33">
-        <v>3265.2</v>
+        <v>914.596</v>
       </c>
       <c r="Q33">
-        <v>-82.3</v>
+        <v>-69.271000000000001</v>
       </c>
       <c r="R33">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>5660</v>
+        <v>888.25800000000004</v>
       </c>
       <c r="U33">
-        <v>444.2</v>
+        <v>249.328</v>
       </c>
       <c r="V33">
-        <v>144</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="W33">
-        <v>-25.9</v>
+        <v>-4.6589999999999998</v>
       </c>
       <c r="X33">
-        <v>-175.4</v>
+        <v>-52.1</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3378,39 +3498,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>-67.5</v>
+        <v>37.957999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39809</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C34">
-        <v>81.400000000000006</v>
+        <v>24.992999999999999</v>
       </c>
       <c r="D34">
-        <v>1195.2</v>
+        <v>537.20299999999997</v>
       </c>
       <c r="E34">
-        <v>1098.5999999999999</v>
+        <v>359.13600000000002</v>
       </c>
       <c r="F34">
-        <v>443</v>
+        <v>150.352</v>
       </c>
       <c r="G34">
-        <v>2902.2</v>
+        <v>1049.6869999999999</v>
       </c>
       <c r="H34">
-        <v>10983.4</v>
+        <v>2425.6770000000001</v>
       </c>
       <c r="I34">
-        <v>474.9</v>
+        <v>266.18900000000002</v>
       </c>
       <c r="J34">
-        <v>3052.2</v>
+        <v>892.05</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3422,37 +3542,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1537.4</v>
+        <v>454.84699999999998</v>
       </c>
       <c r="O34">
-        <v>5315.3</v>
+        <v>1599.952</v>
       </c>
       <c r="P34">
-        <v>3242.4</v>
+        <v>909.1</v>
       </c>
       <c r="Q34">
-        <v>106.9</v>
+        <v>-87.164000000000001</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39809</v>
       </c>
       <c r="S34">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>5668.1</v>
+        <v>825.72500000000002</v>
       </c>
       <c r="U34">
-        <v>551.1</v>
+        <v>162.16399999999999</v>
       </c>
       <c r="V34">
-        <v>194.3</v>
+        <v>35.014000000000003</v>
       </c>
       <c r="W34">
-        <v>-26.2</v>
+        <v>-5.0510000000000002</v>
       </c>
       <c r="X34">
-        <v>-34.299999999999997</v>
+        <v>-35.673000000000002</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3461,39 +3581,39 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>81.400000000000006</v>
+        <v>24.992999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43554</v>
+        <v>39900</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C35">
-        <v>63.9</v>
+        <v>45.896999999999998</v>
       </c>
       <c r="D35">
-        <v>1174.5</v>
+        <v>505.90199999999999</v>
       </c>
       <c r="E35">
-        <v>1136.8</v>
+        <v>331.30700000000002</v>
       </c>
       <c r="F35">
-        <v>448.8</v>
+        <v>149.59200000000001</v>
       </c>
       <c r="G35">
-        <v>3009.3</v>
+        <v>1037.4770000000001</v>
       </c>
       <c r="H35">
-        <v>11119.5</v>
+        <v>2371.884</v>
       </c>
       <c r="I35">
-        <v>549.20000000000005</v>
+        <v>232.875</v>
       </c>
       <c r="J35">
-        <v>2745.2</v>
+        <v>875</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3502,81 +3622,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-12.6</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>1831.9</v>
+        <v>438.012</v>
       </c>
       <c r="O35">
-        <v>5418.7</v>
+        <v>1531.1279999999999</v>
       </c>
       <c r="P35">
-        <v>3369</v>
+        <v>896.096</v>
       </c>
       <c r="Q35">
-        <v>286.8</v>
+        <v>35.652000000000001</v>
       </c>
       <c r="R35">
-        <v>43554</v>
+        <v>39900</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>5700.8</v>
+        <v>840.75599999999997</v>
       </c>
       <c r="U35">
-        <v>837.9</v>
+        <v>197.81700000000001</v>
       </c>
       <c r="V35">
-        <v>94.5</v>
+        <v>65.596999999999994</v>
       </c>
       <c r="W35">
-        <v>-25.9</v>
+        <v>-5.0759999999999996</v>
       </c>
       <c r="X35">
-        <v>-41.6</v>
+        <v>-22.071999999999999</v>
       </c>
       <c r="Y35">
-        <v>121.1</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>63.9</v>
+        <v>45.896999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43645</v>
+        <v>39991</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>35.201000000000001</v>
       </c>
       <c r="D36">
-        <v>1149</v>
+        <v>508.209</v>
       </c>
       <c r="E36">
-        <v>1133.7</v>
+        <v>325.81</v>
       </c>
       <c r="F36">
-        <v>430.8</v>
+        <v>164.589</v>
       </c>
       <c r="G36">
-        <v>3435.4</v>
+        <v>1134.2840000000001</v>
       </c>
       <c r="H36">
-        <v>11428.7</v>
+        <v>2443.2370000000001</v>
       </c>
       <c r="I36">
-        <v>513.70000000000005</v>
+        <v>271.53699999999998</v>
       </c>
       <c r="J36">
-        <v>3072.6</v>
+        <v>875</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3588,78 +3708,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1790.8</v>
+        <v>482.03300000000002</v>
       </c>
       <c r="O36">
-        <v>5702.3</v>
+        <v>1520.768</v>
       </c>
       <c r="P36">
-        <v>3623.5</v>
+        <v>896.47199999999998</v>
       </c>
       <c r="Q36">
-        <v>217.8</v>
+        <v>118.316</v>
       </c>
       <c r="R36">
-        <v>43645</v>
+        <v>39991</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>7250</v>
       </c>
       <c r="T36">
-        <v>5726.4</v>
+        <v>922.46900000000005</v>
       </c>
       <c r="U36">
-        <v>1055.7</v>
+        <v>316.13299999999998</v>
       </c>
       <c r="V36">
-        <v>63.8</v>
+        <v>156.762</v>
       </c>
       <c r="W36">
-        <v>-28.9</v>
+        <v>-5.1710000000000003</v>
       </c>
       <c r="X36">
-        <v>219.8</v>
+        <v>-5.3650000000000002</v>
       </c>
       <c r="Y36">
-        <v>119.2</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>9</v>
+        <v>35.201000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43736</v>
+        <v>40082</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C37">
-        <v>92.2</v>
+        <v>51.860999999999997</v>
       </c>
       <c r="D37">
-        <v>1191.0999999999999</v>
+        <v>528.33299999999997</v>
       </c>
       <c r="E37">
-        <v>1128</v>
+        <v>332.78500000000003</v>
       </c>
       <c r="F37">
-        <v>412.8</v>
+        <v>163.53200000000001</v>
       </c>
       <c r="G37">
-        <v>2739.8</v>
+        <v>1126.749</v>
       </c>
       <c r="H37">
-        <v>11310.8</v>
+        <v>2499.0509999999999</v>
       </c>
       <c r="I37">
-        <v>524.9</v>
+        <v>225.85</v>
       </c>
       <c r="J37">
-        <v>3340.5</v>
+        <v>825</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3668,81 +3788,81 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="N37">
-        <v>1324.7</v>
+        <v>474.71600000000001</v>
       </c>
       <c r="O37">
-        <v>5551.7</v>
+        <v>1527.0550000000001</v>
       </c>
       <c r="P37">
-        <v>3500.1</v>
+        <v>845.01</v>
       </c>
       <c r="Q37">
-        <v>-657.2</v>
+        <v>-73.671999999999997</v>
       </c>
       <c r="R37">
-        <v>43736</v>
+        <v>40082</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>5759.1</v>
+        <v>971.99599999999998</v>
       </c>
       <c r="U37">
-        <v>398.5</v>
+        <v>256.52800000000002</v>
       </c>
       <c r="V37">
-        <v>140</v>
+        <v>36.356999999999999</v>
       </c>
       <c r="W37">
-        <v>-28.8</v>
+        <v>-5.1059999999999999</v>
       </c>
       <c r="X37">
-        <v>-144.9</v>
+        <v>-74.341999999999999</v>
       </c>
       <c r="Y37">
-        <v>124.3</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>92.2</v>
+        <v>51.860999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40173</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C38">
-        <v>-19</v>
+        <v>60.813000000000002</v>
       </c>
       <c r="D38">
-        <v>1322.8</v>
+        <v>582.42499999999995</v>
       </c>
       <c r="E38">
-        <v>1269.5</v>
+        <v>345.94099999999997</v>
       </c>
       <c r="F38">
-        <v>480.8</v>
+        <v>197.625</v>
       </c>
       <c r="G38">
-        <v>2756.9</v>
+        <v>1208.616</v>
       </c>
       <c r="H38">
-        <v>11301.4</v>
+        <v>2570.038</v>
       </c>
       <c r="I38">
-        <v>520.20000000000005</v>
+        <v>263.31599999999997</v>
       </c>
       <c r="J38">
-        <v>3344.7</v>
+        <v>825</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3754,78 +3874,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1335.8</v>
+        <v>533.12300000000005</v>
       </c>
       <c r="O38">
-        <v>5497.3</v>
+        <v>1578.7829999999999</v>
       </c>
       <c r="P38">
-        <v>3502.9</v>
+        <v>843.97799999999995</v>
       </c>
       <c r="Q38">
-        <v>-44.2</v>
+        <v>38.475000000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40173</v>
       </c>
       <c r="S38">
-        <v>11200</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>5804.1</v>
+        <v>991.255</v>
       </c>
       <c r="U38">
-        <v>354.3</v>
+        <v>303.48200000000003</v>
       </c>
       <c r="V38">
-        <v>89.5</v>
+        <v>119.729</v>
       </c>
       <c r="W38">
-        <v>-28.8</v>
+        <v>-5.7320000000000002</v>
       </c>
       <c r="X38">
-        <v>-31.5</v>
+        <v>-59.470999999999997</v>
       </c>
       <c r="Y38">
-        <v>122.8</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>-19</v>
+        <v>60.813000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43918</v>
+        <v>40264</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C39">
-        <v>106.4</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1341</v>
+        <v>537.63199999999995</v>
       </c>
       <c r="E39">
-        <v>1324.8</v>
+        <v>322.32900000000001</v>
       </c>
       <c r="F39">
-        <v>483.2</v>
+        <v>187.48699999999999</v>
       </c>
       <c r="G39">
-        <v>3046.2</v>
+        <v>1138.809</v>
       </c>
       <c r="H39">
-        <v>11400.7</v>
+        <v>2543.4810000000002</v>
       </c>
       <c r="I39">
-        <v>555.79999999999995</v>
+        <v>235.08500000000001</v>
       </c>
       <c r="J39">
-        <v>3163.6</v>
+        <v>825</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3837,81 +3957,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1635</v>
+        <v>453.733</v>
       </c>
       <c r="O39">
-        <v>5613.8</v>
+        <v>1491.5989999999999</v>
       </c>
       <c r="P39">
-        <v>3598.4</v>
+        <v>825</v>
       </c>
       <c r="Q39">
-        <v>156.1</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>43918</v>
+        <v>40264</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>5786.9</v>
+        <v>1051.8820000000001</v>
       </c>
       <c r="U39">
-        <v>510.4</v>
+        <v>314.92399999999998</v>
       </c>
       <c r="V39">
-        <v>171.8</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>-30.9</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>64.7</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>116.1</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>106.4</v>
+        <v>62.180999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44009</v>
+        <v>40355</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C40">
-        <v>60.6</v>
+        <v>48.944000000000003</v>
       </c>
       <c r="D40">
-        <v>1219.0999999999999</v>
+        <v>619.76</v>
       </c>
       <c r="E40">
-        <v>1023.9</v>
+        <v>359.80900000000003</v>
       </c>
       <c r="F40">
-        <v>434.7</v>
+        <v>206.38</v>
       </c>
       <c r="G40">
-        <v>3803.5</v>
+        <v>1402.701</v>
       </c>
       <c r="H40">
-        <v>12128.3</v>
+        <v>3109.0030000000002</v>
       </c>
       <c r="I40">
-        <v>489.1</v>
+        <v>267.31099999999998</v>
       </c>
       <c r="J40">
-        <v>3517</v>
+        <v>935</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3920,211 +4040,3531 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1859.7</v>
+        <v>922.50900000000001</v>
       </c>
       <c r="O40">
-        <v>6217.4</v>
+        <v>2015.0630000000001</v>
       </c>
       <c r="P40">
-        <v>4284</v>
+        <v>1344</v>
       </c>
       <c r="Q40">
-        <v>945.9</v>
+        <v>-208.75700000000001</v>
       </c>
       <c r="R40">
-        <v>44009</v>
+        <v>40355</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>7700</v>
       </c>
       <c r="T40">
-        <v>5910.9</v>
+        <v>1093.94</v>
       </c>
       <c r="U40">
-        <v>1456.3</v>
+        <v>109.765</v>
       </c>
       <c r="V40">
-        <v>290.89999999999998</v>
+        <v>111.943</v>
       </c>
       <c r="W40">
-        <v>-31</v>
+        <v>-5.7629999999999999</v>
       </c>
       <c r="X40">
-        <v>602.1</v>
+        <v>521.78899999999999</v>
       </c>
       <c r="Y40">
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>60.6</v>
+        <v>48.944000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44100</v>
+        <v>40446</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C41">
-        <v>-154.6</v>
+        <v>74.375</v>
       </c>
       <c r="D41">
-        <v>1213.7</v>
+        <v>641.322</v>
       </c>
       <c r="E41">
-        <v>1118.9000000000001</v>
+        <v>417.87</v>
       </c>
       <c r="F41">
-        <v>428.1</v>
+        <v>213.95400000000001</v>
       </c>
       <c r="G41">
-        <v>3398.3</v>
+        <v>1016.9930000000001</v>
       </c>
       <c r="H41">
-        <v>11576</v>
+        <v>2771.7559999999999</v>
       </c>
       <c r="I41">
-        <v>536.4</v>
+        <v>261.959</v>
       </c>
       <c r="J41">
-        <v>3523.8</v>
+        <v>840</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>64.524000000000001</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>-7.476</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="N41">
-        <v>1336.3</v>
+        <v>570.76499999999999</v>
       </c>
       <c r="O41">
-        <v>5755.6</v>
+        <v>1566.9649999999999</v>
       </c>
       <c r="P41">
-        <v>3698.6</v>
+        <v>904.524</v>
       </c>
       <c r="Q41">
-        <v>-606.9</v>
+        <v>-53.667000000000002</v>
       </c>
       <c r="R41">
-        <v>44100</v>
+        <v>40446</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>5820.4</v>
+        <v>1204.7909999999999</v>
       </c>
       <c r="U41">
-        <v>849.4</v>
+        <v>56.097999999999999</v>
       </c>
       <c r="V41">
-        <v>63.1</v>
+        <v>-6.1619999999999999</v>
       </c>
       <c r="W41">
-        <v>-31.1</v>
+        <v>-5.78</v>
       </c>
       <c r="X41">
-        <v>-646.5</v>
+        <v>-39.972000000000001</v>
       </c>
       <c r="Y41">
-        <v>126.7</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>-154.6</v>
+        <v>74.375</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
+        <v>40537</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42">
+        <v>90.167000000000002</v>
+      </c>
+      <c r="D42">
+        <v>717.51499999999999</v>
+      </c>
+      <c r="E42">
+        <v>465.25700000000001</v>
+      </c>
+      <c r="F42">
+        <v>249.5</v>
+      </c>
+      <c r="G42">
+        <v>1163.54</v>
+      </c>
+      <c r="H42">
+        <v>2935.02</v>
+      </c>
+      <c r="I42">
+        <v>289.84399999999999</v>
+      </c>
+      <c r="J42">
+        <v>875</v>
+      </c>
+      <c r="K42">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>588.18899999999996</v>
+      </c>
+      <c r="O42">
+        <v>1626.98</v>
+      </c>
+      <c r="P42">
+        <v>890.971</v>
+      </c>
+      <c r="Q42">
+        <v>78.680999999999997</v>
+      </c>
+      <c r="R42">
+        <v>40537</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1308.04</v>
+      </c>
+      <c r="U42">
+        <v>134.779</v>
+      </c>
+      <c r="V42">
+        <v>128.90100000000001</v>
+      </c>
+      <c r="W42">
+        <v>-6.4880000000000004</v>
+      </c>
+      <c r="X42">
+        <v>-22.367999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AA42">
+        <v>90.167000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40628</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>691.56299999999999</v>
+      </c>
+      <c r="E43">
+        <v>464.19</v>
+      </c>
+      <c r="F43">
+        <v>239.13399999999999</v>
+      </c>
+      <c r="G43">
+        <v>1259.6469999999999</v>
+      </c>
+      <c r="H43">
+        <v>3037.491</v>
+      </c>
+      <c r="I43">
+        <v>286.79500000000002</v>
+      </c>
+      <c r="J43">
+        <v>875.44200000000001</v>
+      </c>
+      <c r="K43">
+        <v>1.18</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>566.60599999999999</v>
+      </c>
+      <c r="O43">
+        <v>1612.3920000000001</v>
+      </c>
+      <c r="P43">
+        <v>891.62199999999996</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>40628</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1425.0989999999999</v>
+      </c>
+      <c r="U43">
+        <v>223.23699999999999</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>89.084999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40719</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>85.57</v>
+      </c>
+      <c r="D44">
+        <v>704.62900000000002</v>
+      </c>
+      <c r="E44">
+        <v>477.851</v>
+      </c>
+      <c r="F44">
+        <v>242.27799999999999</v>
+      </c>
+      <c r="G44">
+        <v>1377.2929999999999</v>
+      </c>
+      <c r="H44">
+        <v>3189.221</v>
+      </c>
+      <c r="I44">
+        <v>343.27800000000002</v>
+      </c>
+      <c r="J44">
+        <v>882.28300000000002</v>
+      </c>
+      <c r="K44">
+        <v>2.77</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>606.03499999999997</v>
+      </c>
+      <c r="O44">
+        <v>1658.2339999999999</v>
+      </c>
+      <c r="P44">
+        <v>900.053</v>
+      </c>
+      <c r="Q44">
+        <v>86.867000000000004</v>
+      </c>
+      <c r="R44">
+        <v>40719</v>
+      </c>
+      <c r="S44">
+        <v>8660</v>
+      </c>
+      <c r="T44">
+        <v>1530.9870000000001</v>
+      </c>
+      <c r="U44">
+        <v>310.10399999999998</v>
+      </c>
+      <c r="V44">
+        <v>144.92699999999999</v>
+      </c>
+      <c r="W44">
+        <v>-6.524</v>
+      </c>
+      <c r="X44">
+        <v>-2.9220000000000002</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>85.57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40810</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>70.457999999999998</v>
+      </c>
+      <c r="D45">
+        <v>725.29499999999996</v>
+      </c>
+      <c r="E45">
+        <v>521.26300000000003</v>
+      </c>
+      <c r="F45">
+        <v>254.75800000000001</v>
+      </c>
+      <c r="G45">
+        <v>1299.0909999999999</v>
+      </c>
+      <c r="H45">
+        <v>3514.087</v>
+      </c>
+      <c r="I45">
+        <v>303.54899999999998</v>
+      </c>
+      <c r="J45">
+        <v>1170.066</v>
+      </c>
+      <c r="K45">
+        <v>3.75</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>622.048</v>
+      </c>
+      <c r="O45">
+        <v>1969.646</v>
+      </c>
+      <c r="P45">
+        <v>1213.816</v>
+      </c>
+      <c r="Q45">
+        <v>-193.489</v>
+      </c>
+      <c r="R45">
+        <v>40810</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1544.441</v>
+      </c>
+      <c r="U45">
+        <v>116.61499999999999</v>
+      </c>
+      <c r="V45">
+        <v>54.146999999999998</v>
+      </c>
+      <c r="W45">
+        <v>-6.5350000000000001</v>
+      </c>
+      <c r="X45">
+        <v>306.327</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>70.457999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>99.739000000000004</v>
+      </c>
+      <c r="D46">
+        <v>838.17</v>
+      </c>
+      <c r="E46">
+        <v>530.178</v>
+      </c>
+      <c r="F46">
+        <v>294.875</v>
+      </c>
+      <c r="G46">
+        <v>1734.0920000000001</v>
+      </c>
+      <c r="H46">
+        <v>3942.5540000000001</v>
+      </c>
+      <c r="I46">
+        <v>324.34899999999999</v>
+      </c>
+      <c r="J46">
+        <v>1465.979</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>666.64099999999996</v>
+      </c>
+      <c r="O46">
+        <v>2311.7429999999999</v>
+      </c>
+      <c r="P46">
+        <v>1505.979</v>
+      </c>
+      <c r="Q46">
+        <v>414.79500000000002</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>1630.8109999999999</v>
+      </c>
+      <c r="U46">
+        <v>531.41</v>
+      </c>
+      <c r="V46">
+        <v>165.97499999999999</v>
+      </c>
+      <c r="W46">
+        <v>-7.4859999999999998</v>
+      </c>
+      <c r="X46">
+        <v>285.291</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>99.739000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>115.727</v>
+      </c>
+      <c r="D47">
+        <v>778.01700000000005</v>
+      </c>
+      <c r="E47">
+        <v>560.74</v>
+      </c>
+      <c r="F47">
+        <v>279.27300000000002</v>
+      </c>
+      <c r="G47">
+        <v>1790.8879999999999</v>
+      </c>
+      <c r="H47">
+        <v>4040.0540000000001</v>
+      </c>
+      <c r="I47">
+        <v>307.017</v>
+      </c>
+      <c r="J47">
+        <v>1467.8679999999999</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>629.75099999999998</v>
+      </c>
+      <c r="O47">
+        <v>2267.38</v>
+      </c>
+      <c r="P47">
+        <v>1507.8679999999999</v>
+      </c>
+      <c r="Q47">
+        <v>22.87</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1772.674</v>
+      </c>
+      <c r="U47">
+        <v>554.28</v>
+      </c>
+      <c r="V47">
+        <v>91.498000000000005</v>
+      </c>
+      <c r="W47">
+        <v>-7.4950000000000001</v>
+      </c>
+      <c r="X47">
+        <v>-2.1040000000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>115.727</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>572.6</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1795.9</v>
+      </c>
+      <c r="H48">
+        <v>4024</v>
+      </c>
+      <c r="I48">
+        <v>317.3</v>
+      </c>
+      <c r="J48">
+        <v>1343.9</v>
+      </c>
+      <c r="K48">
+        <v>0.1</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>652.70000000000005</v>
+      </c>
+      <c r="O48">
+        <v>2171.4</v>
+      </c>
+      <c r="P48">
+        <v>1384</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>8800</v>
+      </c>
+      <c r="T48">
+        <v>1852.6</v>
+      </c>
+      <c r="U48">
+        <v>602.5</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>105.6</v>
+      </c>
+      <c r="D49">
+        <v>769.8</v>
+      </c>
+      <c r="E49">
+        <v>584.00800000000004</v>
+      </c>
+      <c r="F49">
+        <v>285.3</v>
+      </c>
+      <c r="G49">
+        <v>1900.731</v>
+      </c>
+      <c r="H49">
+        <v>4117.43</v>
+      </c>
+      <c r="I49">
+        <v>306.97199999999998</v>
+      </c>
+      <c r="J49">
+        <v>1344.934</v>
+      </c>
+      <c r="K49">
+        <v>1.609</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>629.92399999999998</v>
+      </c>
+      <c r="O49">
+        <v>2152.1120000000001</v>
+      </c>
+      <c r="P49">
+        <v>1386.5429999999999</v>
+      </c>
+      <c r="Q49">
+        <v>29.5</v>
+      </c>
+      <c r="R49">
+        <v>41181</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1965.318</v>
+      </c>
+      <c r="U49">
+        <v>631.99300000000005</v>
+      </c>
+      <c r="V49">
+        <v>44.9</v>
+      </c>
+      <c r="W49">
+        <v>-7.5</v>
+      </c>
+      <c r="X49">
+        <v>-0.2</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41272</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>105.9</v>
+      </c>
+      <c r="D50">
+        <v>883</v>
+      </c>
+      <c r="E50">
+        <v>583.90300000000002</v>
+      </c>
+      <c r="F50">
+        <v>314.89999999999998</v>
+      </c>
+      <c r="G50">
+        <v>1774.1210000000001</v>
+      </c>
+      <c r="H50">
+        <v>4294.3360000000002</v>
+      </c>
+      <c r="I50">
+        <v>321.20499999999998</v>
+      </c>
+      <c r="J50">
+        <v>1343.7049999999999</v>
+      </c>
+      <c r="K50">
+        <v>2.6480000000000001</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>634.86500000000001</v>
+      </c>
+      <c r="O50">
+        <v>2185.8760000000002</v>
+      </c>
+      <c r="P50">
+        <v>1386.3530000000001</v>
+      </c>
+      <c r="Q50">
+        <v>-172.5</v>
+      </c>
+      <c r="R50">
+        <v>41272</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>2108.46</v>
+      </c>
+      <c r="U50">
+        <v>459.51400000000001</v>
+      </c>
+      <c r="V50">
+        <v>184.7</v>
+      </c>
+      <c r="W50">
+        <v>-8.5</v>
+      </c>
+      <c r="X50">
+        <v>-2.1</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41363</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>112</v>
+      </c>
+      <c r="D51">
+        <v>919.8</v>
+      </c>
+      <c r="E51">
+        <v>618.66600000000005</v>
+      </c>
+      <c r="F51">
+        <v>331.4</v>
+      </c>
+      <c r="G51">
+        <v>1697.6279999999999</v>
+      </c>
+      <c r="H51">
+        <v>4495.8879999999999</v>
+      </c>
+      <c r="I51">
+        <v>325.41500000000002</v>
+      </c>
+      <c r="J51">
+        <v>1344.99</v>
+      </c>
+      <c r="K51">
+        <v>4.5129999999999999</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>673.62</v>
+      </c>
+      <c r="O51">
+        <v>2270.56</v>
+      </c>
+      <c r="P51">
+        <v>1390.788</v>
+      </c>
+      <c r="Q51">
+        <v>-158.69999999999999</v>
+      </c>
+      <c r="R51">
+        <v>41363</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2225.328</v>
+      </c>
+      <c r="U51">
+        <v>300.827</v>
+      </c>
+      <c r="V51">
+        <v>150.5</v>
+      </c>
+      <c r="W51">
+        <v>-8.5</v>
+      </c>
+      <c r="X51">
+        <v>-5.8</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>8.6</v>
+      </c>
+      <c r="AA51">
+        <v>111.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41454</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>118.4</v>
+      </c>
+      <c r="D52">
+        <v>967.2</v>
+      </c>
+      <c r="E52">
+        <v>651.9</v>
+      </c>
+      <c r="F52">
+        <v>359.4</v>
+      </c>
+      <c r="G52">
+        <v>2257.1999999999998</v>
+      </c>
+      <c r="H52">
+        <v>5337</v>
+      </c>
+      <c r="I52">
+        <v>382</v>
+      </c>
+      <c r="J52">
+        <v>1924.7</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>740.1</v>
+      </c>
+      <c r="O52">
+        <v>3004.4</v>
+      </c>
+      <c r="P52">
+        <v>1970.9</v>
+      </c>
+      <c r="Q52">
+        <v>479.1</v>
+      </c>
+      <c r="R52">
+        <v>41454</v>
+      </c>
+      <c r="S52">
+        <v>9900</v>
+      </c>
+      <c r="T52">
+        <v>2332.6</v>
+      </c>
+      <c r="U52">
+        <v>779.9</v>
+      </c>
+      <c r="V52">
+        <v>173.7</v>
+      </c>
+      <c r="W52">
+        <v>-8.5</v>
+      </c>
+      <c r="X52">
+        <v>585.29999999999995</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>118.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41545</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>111.4</v>
+      </c>
+      <c r="D53">
+        <v>933.4</v>
+      </c>
+      <c r="E53">
+        <v>702.6</v>
+      </c>
+      <c r="F53">
+        <v>356.3</v>
+      </c>
+      <c r="G53">
+        <v>2367.1999999999998</v>
+      </c>
+      <c r="H53">
+        <v>5508.8</v>
+      </c>
+      <c r="I53">
+        <v>303.5</v>
+      </c>
+      <c r="J53">
+        <v>1962.5</v>
+      </c>
+      <c r="K53">
+        <v>6.1</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>743.5</v>
+      </c>
+      <c r="O53">
+        <v>3038.9</v>
+      </c>
+      <c r="P53">
+        <v>2009.8</v>
+      </c>
+      <c r="Q53">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="R53">
+        <v>41545</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2469.9</v>
+      </c>
+      <c r="U53">
+        <v>816.6</v>
+      </c>
+      <c r="V53">
+        <v>98.7</v>
+      </c>
+      <c r="W53">
+        <v>-8.5</v>
+      </c>
+      <c r="X53">
+        <v>-28.8</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41636</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>-86.1</v>
+      </c>
+      <c r="D54">
+        <v>979</v>
+      </c>
+      <c r="E54">
+        <v>769.8</v>
+      </c>
+      <c r="F54">
+        <v>360.7</v>
+      </c>
+      <c r="G54">
+        <v>2286</v>
+      </c>
+      <c r="H54">
+        <v>13712.8</v>
+      </c>
+      <c r="I54">
+        <v>306.7</v>
+      </c>
+      <c r="J54">
+        <v>3168.9</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>961.8</v>
+      </c>
+      <c r="O54">
+        <v>5211.6000000000004</v>
+      </c>
+      <c r="P54">
+        <v>3310.1</v>
+      </c>
+      <c r="Q54">
+        <v>-295.5</v>
+      </c>
+      <c r="R54">
+        <v>41636</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>8501.2000000000007</v>
+      </c>
+      <c r="U54">
+        <v>521.1</v>
+      </c>
+      <c r="V54">
+        <v>121.6</v>
+      </c>
+      <c r="W54">
+        <v>-9.5</v>
+      </c>
+      <c r="X54">
+        <v>1151.2</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41727</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>48.1</v>
+      </c>
+      <c r="D55">
+        <v>1004.2</v>
+      </c>
+      <c r="E55">
+        <v>793.1</v>
+      </c>
+      <c r="F55">
+        <v>315</v>
+      </c>
+      <c r="G55">
+        <v>2304.4</v>
+      </c>
+      <c r="H55">
+        <v>13742.7</v>
+      </c>
+      <c r="I55">
+        <v>325.3</v>
+      </c>
+      <c r="J55">
+        <v>3134.4</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>953</v>
+      </c>
+      <c r="O55">
+        <v>5184</v>
+      </c>
+      <c r="P55">
+        <v>3276.1</v>
+      </c>
+      <c r="Q55">
+        <v>88.3</v>
+      </c>
+      <c r="R55">
+        <v>41727</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>8558.7000000000007</v>
+      </c>
+      <c r="U55">
+        <v>609.4</v>
+      </c>
+      <c r="V55">
+        <v>180.5</v>
+      </c>
+      <c r="W55">
+        <v>-14</v>
+      </c>
+      <c r="X55">
+        <v>-47.5</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="AA55">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41818</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>131.9</v>
+      </c>
+      <c r="D56">
+        <v>1144.2</v>
+      </c>
+      <c r="E56">
+        <v>935.1</v>
+      </c>
+      <c r="F56">
+        <v>415.8</v>
+      </c>
+      <c r="G56">
+        <v>2550.9</v>
+      </c>
+      <c r="H56">
+        <v>13852.8</v>
+      </c>
+      <c r="I56">
+        <v>364.3</v>
+      </c>
+      <c r="J56">
+        <v>3071.4</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1074.7</v>
+      </c>
+      <c r="O56">
+        <v>5159.1000000000004</v>
+      </c>
+      <c r="P56">
+        <v>3215.1</v>
+      </c>
+      <c r="Q56">
+        <v>190.1</v>
+      </c>
+      <c r="R56">
+        <v>41818</v>
+      </c>
+      <c r="S56">
+        <v>10220</v>
+      </c>
+      <c r="T56">
+        <v>8693.7000000000007</v>
+      </c>
+      <c r="U56">
+        <v>799.5</v>
+      </c>
+      <c r="V56">
+        <v>292.7</v>
+      </c>
+      <c r="W56">
+        <v>-14.1</v>
+      </c>
+      <c r="X56">
+        <v>-46.9</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>15</v>
+      </c>
+      <c r="AA56">
+        <v>131.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41909</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>96.3</v>
+      </c>
+      <c r="D57">
+        <v>951.5</v>
+      </c>
+      <c r="E57">
+        <v>869.4</v>
+      </c>
+      <c r="F57">
+        <v>321.8</v>
+      </c>
+      <c r="G57">
+        <v>2634</v>
+      </c>
+      <c r="H57">
+        <v>13781</v>
+      </c>
+      <c r="I57">
+        <v>309</v>
+      </c>
+      <c r="J57">
+        <v>3057.7</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>-2.1</v>
+      </c>
+      <c r="M57">
+        <v>-39.5</v>
+      </c>
+      <c r="N57">
+        <v>1017.9</v>
+      </c>
+      <c r="O57">
+        <v>5064.3</v>
+      </c>
+      <c r="P57">
+        <v>3199.2</v>
+      </c>
+      <c r="Q57">
+        <v>92</v>
+      </c>
+      <c r="R57">
+        <v>41909</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>8716.7000000000007</v>
+      </c>
+      <c r="U57">
+        <v>891.5</v>
+      </c>
+      <c r="V57">
+        <v>195.1</v>
+      </c>
+      <c r="W57">
+        <v>-14.1</v>
+      </c>
+      <c r="X57">
+        <v>-61.3</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1071.7</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>383.8</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>42000</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42091</v>
+      </c>
+      <c r="B59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59">
+        <v>-22.2</v>
+      </c>
+      <c r="D59">
+        <v>967.2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>369.4</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-13.6</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>-165.7</v>
+      </c>
+      <c r="R59">
+        <v>42091</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>180.2</v>
+      </c>
+      <c r="W59">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="X59">
+        <v>-31.6</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>-22.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60">
+        <v>-22.3</v>
+      </c>
+      <c r="D60">
+        <v>1415.2</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>616.70000000000005</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>-2644.8</v>
+      </c>
+      <c r="R60">
+        <v>42182</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>383.2</v>
+      </c>
+      <c r="W60">
+        <v>-18.3</v>
+      </c>
+      <c r="X60">
+        <v>-955.2</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>-22.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42273</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61">
+        <v>260.89999999999998</v>
+      </c>
+      <c r="D61">
+        <v>1273.0999999999999</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>535.20000000000005</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>-279.10000000000002</v>
+      </c>
+      <c r="R61">
+        <v>42273</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>54</v>
+      </c>
+      <c r="W61">
+        <v>-18.3</v>
+      </c>
+      <c r="X61">
+        <v>44.3</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>260.89999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62">
+        <v>-218.4</v>
+      </c>
+      <c r="D62">
+        <v>1359</v>
+      </c>
+      <c r="E62">
+        <v>1189</v>
+      </c>
+      <c r="F62">
+        <v>543.70000000000005</v>
+      </c>
+      <c r="G62">
+        <v>2791.6</v>
+      </c>
+      <c r="H62">
+        <v>19349.599999999999</v>
+      </c>
+      <c r="I62">
+        <v>555.79999999999995</v>
+      </c>
+      <c r="J62">
+        <v>4971.8999999999996</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2552.1999999999998</v>
+      </c>
+      <c r="O62">
+        <v>9242.7999999999993</v>
+      </c>
+      <c r="P62">
+        <v>6032.4</v>
+      </c>
+      <c r="Q62">
+        <v>-88.7</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>13300</v>
+      </c>
+      <c r="T62">
+        <v>10106.799999999999</v>
+      </c>
+      <c r="U62">
+        <v>417.8</v>
+      </c>
+      <c r="V62">
+        <v>146.9</v>
+      </c>
+      <c r="W62">
+        <v>-18</v>
+      </c>
+      <c r="X62">
+        <v>105.3</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>-218.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42462</v>
+      </c>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63">
+        <v>-529.20000000000005</v>
+      </c>
+      <c r="D63">
+        <v>1347.3</v>
+      </c>
+      <c r="E63">
+        <v>1188</v>
+      </c>
+      <c r="F63">
+        <v>533.1</v>
+      </c>
+      <c r="G63">
+        <v>3014.6</v>
+      </c>
+      <c r="H63">
+        <v>19499.7</v>
+      </c>
+      <c r="I63">
+        <v>557.20000000000005</v>
+      </c>
+      <c r="J63">
+        <v>5902.7</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-730.2</v>
+      </c>
+      <c r="N63">
+        <v>2222.4</v>
+      </c>
+      <c r="O63">
+        <v>9774.2999999999993</v>
+      </c>
+      <c r="P63">
+        <v>6553.4</v>
+      </c>
+      <c r="Q63">
+        <v>171.1</v>
+      </c>
+      <c r="R63">
+        <v>42462</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>9725.4</v>
+      </c>
+      <c r="U63">
+        <v>588.9</v>
+      </c>
+      <c r="V63">
+        <v>98.5</v>
+      </c>
+      <c r="W63">
+        <v>-20.8</v>
+      </c>
+      <c r="X63">
+        <v>437.4</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>-529.20000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42553</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64">
+        <v>-534.29999999999995</v>
+      </c>
+      <c r="D64">
+        <v>1340.5</v>
+      </c>
+      <c r="E64">
+        <v>1194.0999999999999</v>
+      </c>
+      <c r="F64">
+        <v>546.5</v>
+      </c>
+      <c r="G64">
+        <v>3027.8</v>
+      </c>
+      <c r="H64">
+        <v>18291.2</v>
+      </c>
+      <c r="I64">
+        <v>509.1</v>
+      </c>
+      <c r="J64">
+        <v>5652.5</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2060.1999999999998</v>
+      </c>
+      <c r="O64">
+        <v>9242.7999999999993</v>
+      </c>
+      <c r="P64">
+        <v>6410.6</v>
+      </c>
+      <c r="Q64">
+        <v>52.9</v>
+      </c>
+      <c r="R64">
+        <v>42553</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>9048.4</v>
+      </c>
+      <c r="U64">
+        <v>641.79999999999995</v>
+      </c>
+      <c r="V64">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="W64">
+        <v>-20.8</v>
+      </c>
+      <c r="X64">
+        <v>-131.9</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>-534.29999999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65">
+        <v>-1590.2</v>
+      </c>
+      <c r="D65">
+        <v>1261.5999999999999</v>
+      </c>
+      <c r="E65">
+        <v>1124.0999999999999</v>
+      </c>
+      <c r="F65">
+        <v>484.5</v>
+      </c>
+      <c r="G65">
+        <v>2622</v>
+      </c>
+      <c r="H65">
+        <v>15888.1</v>
+      </c>
+      <c r="I65">
+        <v>502.9</v>
+      </c>
+      <c r="J65">
+        <v>5638</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1512.8</v>
+      </c>
+      <c r="O65">
+        <v>8405.5</v>
+      </c>
+      <c r="P65">
+        <v>5903</v>
+      </c>
+      <c r="Q65">
+        <v>-279.10000000000002</v>
+      </c>
+      <c r="R65">
+        <v>42644</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>7482.6</v>
+      </c>
+      <c r="U65">
+        <v>362.7</v>
+      </c>
+      <c r="V65">
+        <v>219</v>
+      </c>
+      <c r="W65">
+        <v>-20.8</v>
+      </c>
+      <c r="X65">
+        <v>-539.6</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>-1590.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66">
+        <v>-1359.1</v>
+      </c>
+      <c r="D66">
+        <v>1331.3</v>
+      </c>
+      <c r="E66">
+        <v>1176</v>
+      </c>
+      <c r="F66">
+        <v>487.7</v>
+      </c>
+      <c r="G66">
+        <v>2805.3</v>
+      </c>
+      <c r="H66">
+        <v>13870.1</v>
+      </c>
+      <c r="I66">
+        <v>471.7</v>
+      </c>
+      <c r="J66">
+        <v>5224.5</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1836.3</v>
+      </c>
+      <c r="O66">
+        <v>7912.5</v>
+      </c>
+      <c r="P66">
+        <v>5797.3</v>
+      </c>
+      <c r="Q66">
+        <v>259.60000000000002</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>12800</v>
+      </c>
+      <c r="T66">
+        <v>5957.6</v>
+      </c>
+      <c r="U66">
+        <v>622.29999999999995</v>
+      </c>
+      <c r="V66">
+        <v>206.2</v>
+      </c>
+      <c r="W66">
+        <v>-20.8</v>
+      </c>
+      <c r="X66">
+        <v>-34.6</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>4.5</v>
+      </c>
+      <c r="AA66">
+        <v>-1359.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="D67">
+        <v>1194</v>
+      </c>
+      <c r="E67">
+        <v>1050.2</v>
+      </c>
+      <c r="F67">
+        <v>464.4</v>
+      </c>
+      <c r="G67">
+        <v>5113.3999999999996</v>
+      </c>
+      <c r="H67">
+        <v>13979.4</v>
+      </c>
+      <c r="I67">
+        <v>476.3</v>
+      </c>
+      <c r="J67">
+        <v>4618.8999999999996</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-13.6</v>
+      </c>
+      <c r="N67">
+        <v>2485.1999999999998</v>
+      </c>
+      <c r="O67">
+        <v>7912.1</v>
+      </c>
+      <c r="P67">
+        <v>5794.3</v>
+      </c>
+      <c r="Q67">
+        <v>2455.5</v>
+      </c>
+      <c r="R67">
+        <v>42826</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>6067.3</v>
+      </c>
+      <c r="U67">
+        <v>3077.8</v>
+      </c>
+      <c r="V67">
+        <v>194.5</v>
+      </c>
+      <c r="W67">
+        <v>-23</v>
+      </c>
+      <c r="X67">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>2200</v>
+      </c>
+      <c r="AA67">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68">
+        <v>-69.599999999999994</v>
+      </c>
+      <c r="D68">
+        <v>1237.9000000000001</v>
+      </c>
+      <c r="E68">
+        <v>1065.9000000000001</v>
+      </c>
+      <c r="F68">
+        <v>504.6</v>
+      </c>
+      <c r="G68">
+        <v>2821.3</v>
+      </c>
+      <c r="H68">
+        <v>11792.2</v>
+      </c>
+      <c r="I68">
+        <v>480.8</v>
+      </c>
+      <c r="J68">
+        <v>3267.9</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1629.7</v>
+      </c>
+      <c r="O68">
+        <v>5711</v>
+      </c>
+      <c r="P68">
+        <v>3674.8</v>
+      </c>
+      <c r="Q68">
+        <v>-2317</v>
+      </c>
+      <c r="R68">
+        <v>42917</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>6081.2</v>
+      </c>
+      <c r="U68">
+        <v>760.8</v>
+      </c>
+      <c r="V68">
+        <v>90.8</v>
+      </c>
+      <c r="W68">
+        <v>-23</v>
+      </c>
+      <c r="X68">
+        <v>-2411.3000000000002</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>-69.599999999999994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69">
+        <v>44.4</v>
+      </c>
+      <c r="D69">
+        <v>1231.3</v>
+      </c>
+      <c r="E69">
+        <v>1076.5999999999999</v>
+      </c>
+      <c r="F69">
+        <v>497.8</v>
+      </c>
+      <c r="G69">
+        <v>2971.8</v>
+      </c>
+      <c r="H69">
+        <v>11842.6</v>
+      </c>
+      <c r="I69">
+        <v>477.1</v>
+      </c>
+      <c r="J69">
+        <v>3275.7</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1732.5</v>
+      </c>
+      <c r="O69">
+        <v>5800.8</v>
+      </c>
+      <c r="P69">
+        <v>3692.8</v>
+      </c>
+      <c r="Q69">
+        <v>15.1</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>6041.8</v>
+      </c>
+      <c r="U69">
+        <v>775.9</v>
+      </c>
+      <c r="V69">
+        <v>196.7</v>
+      </c>
+      <c r="W69">
+        <v>-22.7</v>
+      </c>
+      <c r="X69">
+        <v>-172.5</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70">
+        <v>73.2</v>
+      </c>
+      <c r="D70">
+        <v>1283.0999999999999</v>
+      </c>
+      <c r="E70">
+        <v>1151.3</v>
+      </c>
+      <c r="F70">
+        <v>512.79999999999995</v>
+      </c>
+      <c r="G70">
+        <v>2819.6</v>
+      </c>
+      <c r="H70">
+        <v>11628.8</v>
+      </c>
+      <c r="I70">
+        <v>450.2</v>
+      </c>
+      <c r="J70">
+        <v>3270.8</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1436</v>
+      </c>
+      <c r="O70">
+        <v>5458.2</v>
+      </c>
+      <c r="P70">
+        <v>3341.2</v>
+      </c>
+      <c r="Q70">
+        <v>-97.2</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>10400</v>
+      </c>
+      <c r="T70">
+        <v>6170.6</v>
+      </c>
+      <c r="U70">
+        <v>678.7</v>
+      </c>
+      <c r="V70">
+        <v>216.9</v>
+      </c>
+      <c r="W70">
+        <v>-22.4</v>
+      </c>
+      <c r="X70">
+        <v>-383.7</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71">
+        <v>80.8</v>
+      </c>
+      <c r="D71">
+        <v>1217</v>
+      </c>
+      <c r="E71">
+        <v>1149.5</v>
+      </c>
+      <c r="F71">
+        <v>492.7</v>
+      </c>
+      <c r="G71">
+        <v>2900.7</v>
+      </c>
+      <c r="H71">
+        <v>11639.6</v>
+      </c>
+      <c r="I71">
+        <v>512.20000000000005</v>
+      </c>
+      <c r="J71">
+        <v>3280.6</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-450.7</v>
+      </c>
+      <c r="N71">
+        <v>1392.5</v>
+      </c>
+      <c r="O71">
+        <v>5434</v>
+      </c>
+      <c r="P71">
+        <v>3338.6</v>
+      </c>
+      <c r="Q71">
+        <v>8.6</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>6205.6</v>
+      </c>
+      <c r="U71">
+        <v>687.3</v>
+      </c>
+      <c r="V71">
+        <v>172.4</v>
+      </c>
+      <c r="W71">
+        <v>-26.7</v>
+      </c>
+      <c r="X71">
+        <v>-162.6</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D72">
+        <v>1186.4000000000001</v>
+      </c>
+      <c r="E72">
+        <v>1149</v>
+      </c>
+      <c r="F72">
+        <v>471</v>
+      </c>
+      <c r="G72">
+        <v>2778.5</v>
+      </c>
+      <c r="H72">
+        <v>11225.6</v>
+      </c>
+      <c r="I72">
+        <v>533.4</v>
+      </c>
+      <c r="J72">
+        <v>3085.3</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1537.6</v>
+      </c>
+      <c r="O72">
+        <v>5328.3</v>
+      </c>
+      <c r="P72">
+        <v>3283</v>
+      </c>
+      <c r="Q72">
+        <v>-160.80000000000001</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>5897.3</v>
+      </c>
+      <c r="U72">
+        <v>526.5</v>
+      </c>
+      <c r="V72">
+        <v>82.3</v>
+      </c>
+      <c r="W72">
+        <v>-26.1</v>
+      </c>
+      <c r="X72">
+        <v>-199.6</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-7.5</v>
+      </c>
+      <c r="AA72">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43372</v>
+      </c>
+      <c r="B73" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73">
+        <v>-67.400000000000006</v>
+      </c>
+      <c r="D73">
+        <v>1133.0999999999999</v>
+      </c>
+      <c r="E73">
+        <v>1108.5999999999999</v>
+      </c>
+      <c r="F73">
+        <v>424.8</v>
+      </c>
+      <c r="G73">
+        <v>2768.8</v>
+      </c>
+      <c r="H73">
+        <v>10942.9</v>
+      </c>
+      <c r="I73">
+        <v>503.6</v>
+      </c>
+      <c r="J73">
+        <v>3071</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1493.5</v>
+      </c>
+      <c r="O73">
+        <v>5282.9</v>
+      </c>
+      <c r="P73">
+        <v>3265.2</v>
+      </c>
+      <c r="Q73">
+        <v>-82.3</v>
+      </c>
+      <c r="R73">
+        <v>43372</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>5660</v>
+      </c>
+      <c r="U73">
+        <v>444.2</v>
+      </c>
+      <c r="V73">
+        <v>144</v>
+      </c>
+      <c r="W73">
+        <v>-25.9</v>
+      </c>
+      <c r="X73">
+        <v>-175.4</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>-67.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="D74">
+        <v>1195.2</v>
+      </c>
+      <c r="E74">
+        <v>1098.5999999999999</v>
+      </c>
+      <c r="F74">
+        <v>443</v>
+      </c>
+      <c r="G74">
+        <v>2902.2</v>
+      </c>
+      <c r="H74">
+        <v>10983.4</v>
+      </c>
+      <c r="I74">
+        <v>474.9</v>
+      </c>
+      <c r="J74">
+        <v>3052.2</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1537.4</v>
+      </c>
+      <c r="O74">
+        <v>5315.3</v>
+      </c>
+      <c r="P74">
+        <v>3242.4</v>
+      </c>
+      <c r="Q74">
+        <v>106.9</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>10600</v>
+      </c>
+      <c r="T74">
+        <v>5668.1</v>
+      </c>
+      <c r="U74">
+        <v>551.1</v>
+      </c>
+      <c r="V74">
+        <v>194.3</v>
+      </c>
+      <c r="W74">
+        <v>-26.2</v>
+      </c>
+      <c r="X74">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43554</v>
+      </c>
+      <c r="B75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75">
+        <v>63.9</v>
+      </c>
+      <c r="D75">
+        <v>1174.5</v>
+      </c>
+      <c r="E75">
+        <v>1136.8</v>
+      </c>
+      <c r="F75">
+        <v>448.8</v>
+      </c>
+      <c r="G75">
+        <v>3009.3</v>
+      </c>
+      <c r="H75">
+        <v>11119.5</v>
+      </c>
+      <c r="I75">
+        <v>549.20000000000005</v>
+      </c>
+      <c r="J75">
+        <v>2745.2</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-12.6</v>
+      </c>
+      <c r="N75">
+        <v>1831.9</v>
+      </c>
+      <c r="O75">
+        <v>5418.7</v>
+      </c>
+      <c r="P75">
+        <v>3369</v>
+      </c>
+      <c r="Q75">
+        <v>286.8</v>
+      </c>
+      <c r="R75">
+        <v>43554</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>5700.8</v>
+      </c>
+      <c r="U75">
+        <v>837.9</v>
+      </c>
+      <c r="V75">
+        <v>94.5</v>
+      </c>
+      <c r="W75">
+        <v>-25.9</v>
+      </c>
+      <c r="X75">
+        <v>-41.6</v>
+      </c>
+      <c r="Y75">
+        <v>121.1</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43645</v>
+      </c>
+      <c r="B76" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>1149</v>
+      </c>
+      <c r="E76">
+        <v>1133.7</v>
+      </c>
+      <c r="F76">
+        <v>430.8</v>
+      </c>
+      <c r="G76">
+        <v>3435.4</v>
+      </c>
+      <c r="H76">
+        <v>11428.7</v>
+      </c>
+      <c r="I76">
+        <v>513.70000000000005</v>
+      </c>
+      <c r="J76">
+        <v>3072.6</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1790.8</v>
+      </c>
+      <c r="O76">
+        <v>5702.3</v>
+      </c>
+      <c r="P76">
+        <v>3623.5</v>
+      </c>
+      <c r="Q76">
+        <v>217.8</v>
+      </c>
+      <c r="R76">
+        <v>43645</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>5726.4</v>
+      </c>
+      <c r="U76">
+        <v>1055.7</v>
+      </c>
+      <c r="V76">
+        <v>63.8</v>
+      </c>
+      <c r="W76">
+        <v>-28.9</v>
+      </c>
+      <c r="X76">
+        <v>219.8</v>
+      </c>
+      <c r="Y76">
+        <v>119.2</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77">
+        <v>92.2</v>
+      </c>
+      <c r="D77">
+        <v>1191.0999999999999</v>
+      </c>
+      <c r="E77">
+        <v>1128</v>
+      </c>
+      <c r="F77">
+        <v>412.8</v>
+      </c>
+      <c r="G77">
+        <v>2739.8</v>
+      </c>
+      <c r="H77">
+        <v>11310.8</v>
+      </c>
+      <c r="I77">
+        <v>524.9</v>
+      </c>
+      <c r="J77">
+        <v>3340.5</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1324.7</v>
+      </c>
+      <c r="O77">
+        <v>5551.7</v>
+      </c>
+      <c r="P77">
+        <v>3500.1</v>
+      </c>
+      <c r="Q77">
+        <v>-657.2</v>
+      </c>
+      <c r="R77">
+        <v>43736</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>5759.1</v>
+      </c>
+      <c r="U77">
+        <v>398.5</v>
+      </c>
+      <c r="V77">
+        <v>140</v>
+      </c>
+      <c r="W77">
+        <v>-28.8</v>
+      </c>
+      <c r="X77">
+        <v>-144.9</v>
+      </c>
+      <c r="Y77">
+        <v>124.3</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78">
+        <v>-19</v>
+      </c>
+      <c r="D78">
+        <v>1322.8</v>
+      </c>
+      <c r="E78">
+        <v>1269.5</v>
+      </c>
+      <c r="F78">
+        <v>480.8</v>
+      </c>
+      <c r="G78">
+        <v>2730.6</v>
+      </c>
+      <c r="H78">
+        <v>11301.4</v>
+      </c>
+      <c r="I78">
+        <v>520.20000000000005</v>
+      </c>
+      <c r="J78">
+        <v>3344.7</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1335.8</v>
+      </c>
+      <c r="O78">
+        <v>5497.3</v>
+      </c>
+      <c r="P78">
+        <v>3502.9</v>
+      </c>
+      <c r="Q78">
+        <v>-44.2</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>11200</v>
+      </c>
+      <c r="T78">
+        <v>5804.1</v>
+      </c>
+      <c r="U78">
+        <v>354.3</v>
+      </c>
+      <c r="V78">
+        <v>89.5</v>
+      </c>
+      <c r="W78">
+        <v>-28.8</v>
+      </c>
+      <c r="X78">
+        <v>-31.5</v>
+      </c>
+      <c r="Y78">
+        <v>122.8</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79">
+        <v>106.4</v>
+      </c>
+      <c r="D79">
+        <v>1341</v>
+      </c>
+      <c r="E79">
+        <v>1324.8</v>
+      </c>
+      <c r="F79">
+        <v>483.2</v>
+      </c>
+      <c r="G79">
+        <v>3046.2</v>
+      </c>
+      <c r="H79">
+        <v>11400.7</v>
+      </c>
+      <c r="I79">
+        <v>555.79999999999995</v>
+      </c>
+      <c r="J79">
+        <v>3163.6</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1635</v>
+      </c>
+      <c r="O79">
+        <v>5613.8</v>
+      </c>
+      <c r="P79">
+        <v>3598.4</v>
+      </c>
+      <c r="Q79">
+        <v>156.1</v>
+      </c>
+      <c r="R79">
+        <v>43918</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>5786.9</v>
+      </c>
+      <c r="U79">
+        <v>510.4</v>
+      </c>
+      <c r="V79">
+        <v>171.8</v>
+      </c>
+      <c r="W79">
+        <v>-30.9</v>
+      </c>
+      <c r="X79">
+        <v>64.7</v>
+      </c>
+      <c r="Y79">
+        <v>116.1</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>106.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80">
+        <v>60.6</v>
+      </c>
+      <c r="D80">
+        <v>1219.0999999999999</v>
+      </c>
+      <c r="E80">
+        <v>1023.9</v>
+      </c>
+      <c r="F80">
+        <v>434.7</v>
+      </c>
+      <c r="G80">
+        <v>3803.5</v>
+      </c>
+      <c r="H80">
+        <v>12128.3</v>
+      </c>
+      <c r="I80">
+        <v>489.1</v>
+      </c>
+      <c r="J80">
+        <v>3517</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1859.7</v>
+      </c>
+      <c r="O80">
+        <v>6217.4</v>
+      </c>
+      <c r="P80">
+        <v>4284</v>
+      </c>
+      <c r="Q80">
+        <v>945.9</v>
+      </c>
+      <c r="R80">
+        <v>44009</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>5910.9</v>
+      </c>
+      <c r="U80">
+        <v>1456.3</v>
+      </c>
+      <c r="V80">
+        <v>290.89999999999998</v>
+      </c>
+      <c r="W80">
+        <v>-31</v>
+      </c>
+      <c r="X80">
+        <v>602.1</v>
+      </c>
+      <c r="Y80">
+        <v>128.5</v>
+      </c>
+      <c r="Z80">
+        <v>-15</v>
+      </c>
+      <c r="AA80">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81">
+        <v>-154.6</v>
+      </c>
+      <c r="D81">
+        <v>1213.7</v>
+      </c>
+      <c r="E81">
+        <v>1118.9000000000001</v>
+      </c>
+      <c r="F81">
+        <v>428.1</v>
+      </c>
+      <c r="G81">
+        <v>3398.3</v>
+      </c>
+      <c r="H81">
+        <v>11576</v>
+      </c>
+      <c r="I81">
+        <v>536.4</v>
+      </c>
+      <c r="J81">
+        <v>3523.8</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1336.3</v>
+      </c>
+      <c r="O81">
+        <v>5755.6</v>
+      </c>
+      <c r="P81">
+        <v>3698.6</v>
+      </c>
+      <c r="Q81">
+        <v>-606.9</v>
+      </c>
+      <c r="R81">
+        <v>44100</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>5820.4</v>
+      </c>
+      <c r="U81">
+        <v>849.4</v>
+      </c>
+      <c r="V81">
+        <v>63.1</v>
+      </c>
+      <c r="W81">
+        <v>-31.1</v>
+      </c>
+      <c r="X81">
+        <v>-646.5</v>
+      </c>
+      <c r="Y81">
+        <v>126.7</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>-154.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
         <v>44196</v>
       </c>
-      <c r="B42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42">
+      <c r="B82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82">
         <v>-175</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1289.5</v>
       </c>
-      <c r="E42">
-        <v>1054.2</v>
-      </c>
-      <c r="F42">
-        <v>472</v>
-      </c>
-      <c r="G42">
+      <c r="E82">
+        <v>1073.9000000000001</v>
+      </c>
+      <c r="F82">
+        <v>469.2</v>
+      </c>
+      <c r="G82">
         <v>3133.5</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>11488.4</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>543.79999999999995</v>
       </c>
-      <c r="J42">
-        <v>3528.3</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="J82">
+        <v>3507.5</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1382</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>5833.3</v>
       </c>
-      <c r="P42">
-        <v>3566.1</v>
-      </c>
-      <c r="Q42">
+      <c r="P82">
+        <v>3759.4</v>
+      </c>
+      <c r="Q82">
         <v>-207.9</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>11500</v>
+      </c>
+      <c r="T82">
         <v>5655.1</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>641.5</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>110.4</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-30.9</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-201.4</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Y82">
+        <v>180.1</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>-175</v>
       </c>
     </row>
